--- a/DeteccionArritmiasTotal.xlsx
+++ b/DeteccionArritmiasTotal.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D99B9-5FAE-4BED-9413-DE9060B53A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F984D3-5AC7-454F-BC19-48CDD63E0106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D607851B-EE39-4F9F-BF50-C83A55A4E572}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$96</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -247,12 +250,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -267,8 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD434795-2931-472D-8A99-953EFB51E76D}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="J88" sqref="A88:J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,34 +634,34 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
         <v>95.336600000000004</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2273</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2167</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>106</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>106</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>4.6634000000000002</v>
       </c>
     </row>
@@ -752,34 +762,34 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
         <v>97.942599999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2090</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2047</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>43</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>43</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>2.0573999999999999</v>
       </c>
     </row>
@@ -1104,66 +1114,66 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
         <v>95.998400000000004</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>100</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>2549</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>2447</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>102</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>102</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>4.0015999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
         <v>95.654600000000002</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>100</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1795</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>1717</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
         <v>78</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>78</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>4.3453999999999997</v>
       </c>
     </row>
@@ -3376,34 +3386,34 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88">
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="1">
         <v>96.833799999999997</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>66.245500000000007</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>758</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>734</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1">
         <v>374</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="1">
         <v>24</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="1">
         <v>398</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="1">
         <v>52.506599999999999</v>
       </c>
     </row>
@@ -3669,6 +3679,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J96" xr:uid="{5C402FB0-9D75-47A2-B46C-DC817BE3EB6E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DeteccionArritmiasTotal.xlsx
+++ b/DeteccionArritmiasTotal.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\algoritmoArritmias_conPanTompkins2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F984D3-5AC7-454F-BC19-48CDD63E0106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD97C9D8-EACA-4729-964D-7F5FC614196F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D607851B-EE39-4F9F-BF50-C83A55A4E572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{63D180E8-B5AE-44F4-B7B8-6F81A7E749F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$96</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
   <si>
     <t>Registro</t>
   </si>
@@ -159,12 +156,12 @@
     <t>202m</t>
   </si>
   <si>
+    <t>Aleteo Auricular</t>
+  </si>
+  <si>
     <t>203m</t>
   </si>
   <si>
-    <t>Aleteo Auricular</t>
-  </si>
-  <si>
     <t>205m</t>
   </si>
   <si>
@@ -234,7 +231,7 @@
     <t>234m</t>
   </si>
   <si>
-    <t>48 pacientes</t>
+    <t>48 registros</t>
   </si>
 </sst>
 </file>
@@ -250,18 +247,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,9 +267,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,14 +582,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD434795-2931-472D-8A99-953EFB51E76D}">
-  <dimension ref="A1:J96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70995F33-8010-4EDA-BCB3-CD6E74B57F56}">
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="J88" sqref="A88:J88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -634,35 +631,35 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>95.336600000000004</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>69.115700000000004</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>2273</v>
       </c>
-      <c r="F2" s="1">
-        <v>2167</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2">
+        <v>1571</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <v>106</v>
-      </c>
-      <c r="I2" s="1">
-        <v>106</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4.6634000000000002</v>
+      <c r="H2">
+        <v>702</v>
+      </c>
+      <c r="I2">
+        <v>702</v>
+      </c>
+      <c r="J2">
+        <v>30.8843</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -673,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>36.785899999999998</v>
+        <v>95.568600000000004</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -682,19 +679,19 @@
         <v>1873</v>
       </c>
       <c r="F3">
-        <v>689</v>
+        <v>1790</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1184</v>
+        <v>83</v>
       </c>
       <c r="I3">
-        <v>1184</v>
+        <v>83</v>
       </c>
       <c r="J3">
-        <v>63.214100000000002</v>
+        <v>4.4314</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,28 +702,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.98038999999999998</v>
+        <v>65.686300000000003</v>
       </c>
       <c r="D4">
-        <v>0.77519000000000005</v>
+        <v>30.044799999999999</v>
       </c>
       <c r="E4">
         <v>102</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="G4">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="H4">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="I4">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="J4">
-        <v>224.50980000000001</v>
+        <v>187.25489999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,60 +734,60 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>70.743399999999994</v>
+        <v>54.004800000000003</v>
       </c>
       <c r="D5">
-        <v>94.430199999999999</v>
+        <v>95.7483</v>
       </c>
       <c r="E5">
         <v>2085</v>
       </c>
       <c r="F5">
-        <v>1475</v>
+        <v>1126</v>
       </c>
       <c r="G5">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>610</v>
+        <v>959</v>
       </c>
       <c r="I5">
-        <v>697</v>
+        <v>1009</v>
       </c>
       <c r="J5">
-        <v>33.429299999999998</v>
+        <v>48.393300000000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>97.942599999999999</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>73.349299999999999</v>
+      </c>
+      <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>2090</v>
       </c>
-      <c r="F6" s="1">
-        <v>2047</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6">
+        <v>1533</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
-        <v>43</v>
-      </c>
-      <c r="I6" s="1">
-        <v>43</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.0573999999999999</v>
+      <c r="H6">
+        <v>557</v>
+      </c>
+      <c r="I6">
+        <v>557</v>
+      </c>
+      <c r="J6">
+        <v>26.650700000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,28 +798,28 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>8.6092999999999993</v>
+        <v>16.5563</v>
       </c>
       <c r="D7">
-        <v>40.625</v>
+        <v>29.239799999999999</v>
       </c>
       <c r="E7">
         <v>302</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="H7">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="I7">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="J7">
-        <v>103.9735</v>
+        <v>123.5099</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,28 +830,28 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>48.777999999999999</v>
+        <v>35.183300000000003</v>
       </c>
       <c r="D8">
-        <v>70.544899999999998</v>
+        <v>82.754499999999993</v>
       </c>
       <c r="E8">
         <v>1964</v>
       </c>
       <c r="F8">
-        <v>958</v>
+        <v>691</v>
       </c>
       <c r="G8">
-        <v>400</v>
+        <v>144</v>
       </c>
       <c r="H8">
-        <v>1006</v>
+        <v>1273</v>
       </c>
       <c r="I8">
-        <v>1406</v>
+        <v>1417</v>
       </c>
       <c r="J8">
-        <v>71.5886</v>
+        <v>72.148700000000005</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,28 +862,28 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>3.4944000000000002</v>
+        <v>11.5985</v>
       </c>
       <c r="D9">
-        <v>98.947400000000002</v>
+        <v>99.680499999999995</v>
       </c>
       <c r="E9">
         <v>2690</v>
       </c>
       <c r="F9">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2596</v>
+        <v>2378</v>
       </c>
       <c r="I9">
-        <v>2597</v>
+        <v>2379</v>
       </c>
       <c r="J9">
-        <v>96.5428</v>
+        <v>88.438699999999997</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,28 +894,28 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>42.147100000000002</v>
+        <v>49.039099999999998</v>
       </c>
       <c r="D10">
-        <v>99.843000000000004</v>
+        <v>99.864999999999995</v>
       </c>
       <c r="E10">
         <v>1509</v>
       </c>
       <c r="F10">
-        <v>636</v>
+        <v>740</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>873</v>
+        <v>769</v>
       </c>
       <c r="I10">
-        <v>874</v>
+        <v>770</v>
       </c>
       <c r="J10">
-        <v>57.919199999999996</v>
+        <v>51.027200000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -941,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>833.33330000000001</v>
+        <v>266.66669999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -961,28 +958,28 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>58.4559</v>
+        <v>54.595599999999997</v>
       </c>
       <c r="D12">
-        <v>34.0471</v>
+        <v>48.292700000000004</v>
       </c>
       <c r="E12">
         <v>544</v>
       </c>
       <c r="F12">
+        <v>297</v>
+      </c>
+      <c r="G12">
         <v>318</v>
       </c>
-      <c r="G12">
-        <v>616</v>
-      </c>
       <c r="H12">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="I12">
-        <v>842</v>
+        <v>565</v>
       </c>
       <c r="J12">
-        <v>154.77940000000001</v>
+        <v>103.8603</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,28 +990,28 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>63.020099999999999</v>
+        <v>95.418400000000005</v>
       </c>
       <c r="D13">
-        <v>79.716099999999997</v>
+        <v>99.804400000000001</v>
       </c>
       <c r="E13">
         <v>2139</v>
       </c>
       <c r="F13">
-        <v>1348</v>
+        <v>2041</v>
       </c>
       <c r="G13">
-        <v>343</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>791</v>
+        <v>98</v>
       </c>
       <c r="I13">
-        <v>1134</v>
+        <v>102</v>
       </c>
       <c r="J13">
-        <v>53.0154</v>
+        <v>4.7686000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1025,28 +1022,28 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>3.5106999999999999</v>
+        <v>16.017600000000002</v>
       </c>
       <c r="D14">
-        <v>96.969700000000003</v>
+        <v>99.658699999999996</v>
       </c>
       <c r="E14">
         <v>1823</v>
       </c>
       <c r="F14">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1759</v>
+        <v>1531</v>
       </c>
       <c r="I14">
-        <v>1761</v>
+        <v>1532</v>
       </c>
       <c r="J14">
-        <v>96.599000000000004</v>
+        <v>84.037300000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>26.992899999999999</v>
+        <v>12.273099999999999</v>
       </c>
       <c r="D15">
         <v>100</v>
@@ -1066,19 +1063,19 @@
         <v>2534</v>
       </c>
       <c r="F15">
-        <v>684</v>
+        <v>311</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1850</v>
+        <v>2223</v>
       </c>
       <c r="I15">
-        <v>1850</v>
+        <v>2223</v>
       </c>
       <c r="J15">
-        <v>73.007099999999994</v>
+        <v>87.726900000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1089,92 +1086,92 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>1.97</v>
+        <v>0.93808999999999998</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>95.238100000000003</v>
       </c>
       <c r="E16">
         <v>2132</v>
       </c>
       <c r="F16">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2112</v>
+      </c>
+      <c r="I16">
+        <v>2113</v>
+      </c>
+      <c r="J16">
+        <v>99.108800000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>25.6571</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>2549</v>
+      </c>
+      <c r="F17">
+        <v>654</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>2090</v>
-      </c>
-      <c r="I16">
-        <v>2090</v>
-      </c>
-      <c r="J16">
-        <v>98.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1">
-        <v>95.998400000000004</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="H17">
+        <v>1895</v>
+      </c>
+      <c r="I17">
+        <v>1895</v>
+      </c>
+      <c r="J17">
+        <v>74.3429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>73.593299999999999</v>
+      </c>
+      <c r="D18">
         <v>100</v>
       </c>
-      <c r="E17" s="1">
-        <v>2549</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2447</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="E18">
+        <v>1795</v>
+      </c>
+      <c r="F18">
+        <v>1321</v>
+      </c>
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="H17" s="1">
-        <v>102</v>
-      </c>
-      <c r="I17" s="1">
-        <v>102</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4.0015999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1">
-        <v>95.654600000000002</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1795</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1717</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>78</v>
-      </c>
-      <c r="I18" s="1">
-        <v>78</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4.3453999999999997</v>
+      <c r="H18">
+        <v>474</v>
+      </c>
+      <c r="I18">
+        <v>474</v>
+      </c>
+      <c r="J18">
+        <v>26.406700000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1185,28 +1182,28 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>0.24690999999999999</v>
+        <v>16.296299999999999</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>66.442999999999998</v>
       </c>
       <c r="E19">
         <v>1215</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>1212</v>
+        <v>1017</v>
       </c>
       <c r="I19">
-        <v>1212</v>
+        <v>1117</v>
       </c>
       <c r="J19">
-        <v>99.753100000000003</v>
+        <v>91.934200000000004</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1217,28 +1214,28 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>71.428600000000003</v>
+        <v>57.142899999999997</v>
       </c>
       <c r="D20">
-        <v>0.27472999999999997</v>
+        <v>0.27972000000000002</v>
       </c>
       <c r="E20">
         <v>7</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>1815</v>
+        <v>1426</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>1817</v>
+        <v>1429</v>
       </c>
       <c r="J20">
-        <v>25957.142899999999</v>
+        <v>20414.2857</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1249,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>90.566000000000003</v>
+        <v>84.599699999999999</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -1258,19 +1255,19 @@
         <v>1961</v>
       </c>
       <c r="F21">
-        <v>1776</v>
+        <v>1659</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="I21">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="J21">
-        <v>9.4339999999999993</v>
+        <v>15.4003</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1281,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>86.900800000000004</v>
+        <v>56.611600000000003</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -1290,19 +1287,19 @@
         <v>2420</v>
       </c>
       <c r="F22">
-        <v>2103</v>
+        <v>1370</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>317</v>
+        <v>1050</v>
       </c>
       <c r="I22">
-        <v>317</v>
+        <v>1050</v>
       </c>
       <c r="J22">
-        <v>13.0992</v>
+        <v>43.388399999999997</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>30.1691</v>
+        <v>0.78022999999999998</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -1322,19 +1319,19 @@
         <v>1538</v>
       </c>
       <c r="F23">
-        <v>464</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1074</v>
+        <v>1526</v>
       </c>
       <c r="I23">
-        <v>1074</v>
+        <v>1526</v>
       </c>
       <c r="J23">
-        <v>69.8309</v>
+        <v>99.219800000000006</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>28.739100000000001</v>
+        <v>34.826099999999997</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -1354,19 +1351,19 @@
         <v>2300</v>
       </c>
       <c r="F24">
-        <v>661</v>
+        <v>801</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1639</v>
+        <v>1499</v>
       </c>
       <c r="I24">
-        <v>1639</v>
+        <v>1499</v>
       </c>
       <c r="J24">
-        <v>71.260900000000007</v>
+        <v>65.173900000000003</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1377,28 +1374,28 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>63.7333</v>
       </c>
       <c r="D25">
-        <v>93.301400000000001</v>
+        <v>92.905699999999996</v>
       </c>
       <c r="E25">
         <v>1500</v>
       </c>
       <c r="F25">
-        <v>975</v>
+        <v>956</v>
       </c>
       <c r="G25">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H25">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="I25">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="J25">
-        <v>39.666699999999999</v>
+        <v>41.133299999999998</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,28 +1406,28 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>55.397100000000002</v>
+        <v>42.362499999999997</v>
       </c>
       <c r="D26">
-        <v>48.571399999999997</v>
+        <v>50.6083</v>
       </c>
       <c r="E26">
         <v>491</v>
       </c>
       <c r="F26">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="G26">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="H26">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="I26">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="J26">
-        <v>103.2587</v>
+        <v>98.981700000000004</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>25.92</v>
+        <v>21.706700000000001</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -1450,19 +1447,19 @@
         <v>1875</v>
       </c>
       <c r="F27">
-        <v>486</v>
+        <v>407</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1389</v>
+        <v>1468</v>
       </c>
       <c r="I27">
-        <v>1389</v>
+        <v>1468</v>
       </c>
       <c r="J27">
-        <v>74.08</v>
+        <v>78.293300000000002</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1473,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>55.125100000000003</v>
+        <v>99.192899999999995</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -1482,19 +1479,19 @@
         <v>2478</v>
       </c>
       <c r="F28">
-        <v>1366</v>
+        <v>2458</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1112</v>
+        <v>20</v>
       </c>
       <c r="I28">
-        <v>1112</v>
+        <v>20</v>
       </c>
       <c r="J28">
-        <v>44.874899999999997</v>
+        <v>0.80710000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1505,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>18.313600000000001</v>
+        <v>6.2582000000000004</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -1514,19 +1511,19 @@
         <v>1518</v>
       </c>
       <c r="F29">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1240</v>
+        <v>1423</v>
       </c>
       <c r="I29">
-        <v>1240</v>
+        <v>1423</v>
       </c>
       <c r="J29">
-        <v>81.686400000000006</v>
+        <v>93.741799999999998</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1537,28 +1534,28 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>1.4974000000000001</v>
+        <v>11.914099999999999</v>
       </c>
       <c r="D30">
-        <v>88.461500000000001</v>
+        <v>94.329899999999995</v>
       </c>
       <c r="E30">
         <v>1536</v>
       </c>
       <c r="F30">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>1513</v>
+        <v>1353</v>
       </c>
       <c r="I30">
-        <v>1516</v>
+        <v>1364</v>
       </c>
       <c r="J30">
-        <v>98.697900000000004</v>
+        <v>88.802099999999996</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1569,28 +1566,28 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>81.176500000000004</v>
+        <v>61.176499999999997</v>
       </c>
       <c r="D31">
-        <v>4.3699000000000003</v>
+        <v>8.7394999999999996</v>
       </c>
       <c r="E31">
         <v>85</v>
       </c>
       <c r="F31">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G31">
-        <v>1510</v>
+        <v>543</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I31">
-        <v>1526</v>
+        <v>576</v>
       </c>
       <c r="J31">
-        <v>1795.2941000000001</v>
+        <v>677.64710000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1601,28 +1598,28 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>28.390699999999999</v>
+        <v>28.531300000000002</v>
       </c>
       <c r="D32">
-        <v>99.262900000000002</v>
+        <v>93.981499999999997</v>
       </c>
       <c r="E32">
         <v>1423</v>
       </c>
       <c r="F32">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H32">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I32">
-        <v>1022</v>
+        <v>1043</v>
       </c>
       <c r="J32">
-        <v>71.820099999999996</v>
+        <v>73.295900000000003</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1633,28 +1630,28 @@
         <v>19</v>
       </c>
       <c r="C33">
-        <v>17.391300000000001</v>
+        <v>21.739100000000001</v>
       </c>
       <c r="D33">
-        <v>0.46350000000000002</v>
+        <v>1.3441000000000001</v>
       </c>
       <c r="E33">
         <v>23</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>859</v>
+        <v>367</v>
       </c>
       <c r="H33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33">
-        <v>878</v>
+        <v>385</v>
       </c>
       <c r="J33">
-        <v>3817.3912999999998</v>
+        <v>1673.913</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1665,28 +1662,28 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>62.938200000000002</v>
+        <v>29.215399999999999</v>
       </c>
       <c r="D34">
-        <v>77.174999999999997</v>
+        <v>75.430999999999997</v>
       </c>
       <c r="E34">
         <v>1198</v>
       </c>
       <c r="F34">
-        <v>754</v>
+        <v>350</v>
       </c>
       <c r="G34">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="H34">
-        <v>444</v>
+        <v>848</v>
       </c>
       <c r="I34">
-        <v>667</v>
+        <v>962</v>
       </c>
       <c r="J34">
-        <v>55.676099999999998</v>
+        <v>80.3005</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1697,28 +1694,28 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>7.1233000000000004</v>
+        <v>3.8355999999999999</v>
       </c>
       <c r="D35">
-        <v>38.518500000000003</v>
+        <v>15.2174</v>
       </c>
       <c r="E35">
         <v>730</v>
       </c>
       <c r="F35">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="H35">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="I35">
-        <v>761</v>
+        <v>858</v>
       </c>
       <c r="J35">
-        <v>104.2466</v>
+        <v>117.5342</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1729,28 +1726,28 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>4.0614999999999997</v>
+        <v>14.160299999999999</v>
       </c>
       <c r="D36">
-        <v>31.896599999999999</v>
+        <v>38.738700000000001</v>
       </c>
       <c r="E36">
         <v>911</v>
       </c>
       <c r="F36">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="G36">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="H36">
-        <v>874</v>
+        <v>782</v>
       </c>
       <c r="I36">
-        <v>953</v>
+        <v>986</v>
       </c>
       <c r="J36">
-        <v>104.6103</v>
+        <v>108.23269999999999</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1761,28 +1758,28 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>59.504100000000001</v>
+        <v>50.688699999999997</v>
       </c>
       <c r="D37">
-        <v>21.1557</v>
+        <v>28.264199999999999</v>
       </c>
       <c r="E37">
         <v>363</v>
       </c>
       <c r="F37">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="G37">
-        <v>805</v>
+        <v>467</v>
       </c>
       <c r="H37">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="I37">
-        <v>952</v>
+        <v>646</v>
       </c>
       <c r="J37">
-        <v>262.25900000000001</v>
+        <v>177.9614</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1793,28 +1790,28 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>0.45704</v>
+        <v>11.700200000000001</v>
       </c>
       <c r="D38">
-        <v>83.333299999999994</v>
+        <v>65.306100000000001</v>
       </c>
       <c r="E38">
         <v>1094</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="H38">
-        <v>1089</v>
+        <v>966</v>
       </c>
       <c r="I38">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="J38">
-        <v>99.634399999999999</v>
+        <v>94.515500000000003</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1822,191 +1819,191 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>0.10638</v>
+        <v>75.961500000000001</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>33.7607</v>
       </c>
       <c r="E39">
-        <v>940</v>
+        <v>104</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="H39">
-        <v>939</v>
+        <v>25</v>
       </c>
       <c r="I39">
-        <v>943</v>
+        <v>180</v>
       </c>
       <c r="J39">
-        <v>100.31910000000001</v>
+        <v>173.07689999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>3.8801000000000001</v>
+        <v>9.2553000000000001</v>
       </c>
       <c r="D40">
-        <v>39.285699999999999</v>
+        <v>69.047600000000003</v>
       </c>
       <c r="E40">
-        <v>567</v>
+        <v>940</v>
       </c>
       <c r="F40">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="G40">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>545</v>
+        <v>853</v>
       </c>
       <c r="I40">
-        <v>579</v>
+        <v>892</v>
       </c>
       <c r="J40">
-        <v>102.1164</v>
+        <v>94.893600000000006</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
       <c r="C41">
-        <v>5.1889000000000003</v>
+        <v>12.1693</v>
       </c>
       <c r="D41">
-        <v>60.386499999999998</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>2409</v>
+        <v>567</v>
       </c>
       <c r="F41">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="G41">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="H41">
-        <v>2284</v>
+        <v>498</v>
       </c>
       <c r="I41">
-        <v>2366</v>
+        <v>659</v>
       </c>
       <c r="J41">
-        <v>98.215000000000003</v>
+        <v>116.2257</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C42">
-        <v>11.25</v>
+        <v>15.7742</v>
       </c>
       <c r="D42">
-        <v>0.99778</v>
+        <v>67.375900000000001</v>
       </c>
       <c r="E42">
-        <v>80</v>
+        <v>2409</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="G42">
-        <v>893</v>
+        <v>184</v>
       </c>
       <c r="H42">
-        <v>71</v>
+        <v>2029</v>
       </c>
       <c r="I42">
-        <v>964</v>
+        <v>2213</v>
       </c>
       <c r="J42">
-        <v>1205</v>
+        <v>91.863799999999998</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C43">
-        <v>28.571400000000001</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>0.20263</v>
+        <v>2.2599</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>985</v>
+        <v>692</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="I43">
-        <v>990</v>
+        <v>756</v>
       </c>
       <c r="J43">
-        <v>14142.857099999999</v>
+        <v>945</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>89.6935</v>
+        <v>14.2857</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>0.12803999999999999</v>
       </c>
       <c r="E44">
-        <v>2610</v>
+        <v>7</v>
       </c>
       <c r="F44">
-        <v>2341</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="H44">
-        <v>269</v>
+        <v>6</v>
       </c>
       <c r="I44">
-        <v>269</v>
+        <v>786</v>
       </c>
       <c r="J44">
-        <v>10.3065</v>
+        <v>11228.571400000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2014,63 +2011,63 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>20.408200000000001</v>
+        <v>95.862099999999998</v>
       </c>
       <c r="D45">
-        <v>4.7847</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>2610</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>2502</v>
       </c>
       <c r="G45">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I45">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="J45">
-        <v>485.71429999999998</v>
+        <v>4.1379000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C46">
-        <v>0.13289000000000001</v>
+        <v>38.775500000000001</v>
       </c>
       <c r="D46">
-        <v>6.0606</v>
+        <v>39.583300000000001</v>
       </c>
       <c r="E46">
-        <v>1505</v>
+        <v>49</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G46">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>1503</v>
+        <v>30</v>
       </c>
       <c r="I46">
-        <v>1534</v>
+        <v>59</v>
       </c>
       <c r="J46">
-        <v>101.9269</v>
+        <v>120.40819999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2078,31 +2075,31 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>33.333300000000001</v>
+        <v>0.26578000000000002</v>
       </c>
       <c r="D47">
-        <v>0.40322999999999998</v>
+        <v>66.666700000000006</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>1505</v>
       </c>
       <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
         <v>2</v>
       </c>
-      <c r="G47">
-        <v>494</v>
-      </c>
       <c r="H47">
-        <v>4</v>
+        <v>1501</v>
       </c>
       <c r="I47">
-        <v>498</v>
+        <v>1503</v>
       </c>
       <c r="J47">
-        <v>8300</v>
+        <v>99.867099999999994</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2110,31 +2107,31 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>12.133900000000001</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>35.582799999999999</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>478</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>105</v>
+        <v>492</v>
       </c>
       <c r="H48">
-        <v>420</v>
+        <v>6</v>
       </c>
       <c r="I48">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="J48">
-        <v>109.8326</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2142,63 +2139,63 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>40.5914</v>
+        <v>14.4351</v>
       </c>
       <c r="D49">
-        <v>10.5816</v>
+        <v>58.474600000000002</v>
       </c>
       <c r="E49">
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="F49">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="G49">
-        <v>1276</v>
+        <v>49</v>
       </c>
       <c r="H49">
-        <v>221</v>
+        <v>409</v>
       </c>
       <c r="I49">
-        <v>1497</v>
+        <v>458</v>
       </c>
       <c r="J49">
-        <v>402.4194</v>
+        <v>95.815899999999999</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>7.1977000000000002</v>
+        <v>40.5914</v>
       </c>
       <c r="D50">
-        <v>70.078699999999998</v>
+        <v>10.641299999999999</v>
       </c>
       <c r="E50">
-        <v>2473</v>
+        <v>372</v>
       </c>
       <c r="F50">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="G50">
-        <v>76</v>
+        <v>1268</v>
       </c>
       <c r="H50">
-        <v>2295</v>
+        <v>221</v>
       </c>
       <c r="I50">
-        <v>2371</v>
+        <v>1489</v>
       </c>
       <c r="J50">
-        <v>95.875500000000002</v>
+        <v>400.2688</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2206,63 +2203,63 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>11.867699999999999</v>
+        <v>10.270899999999999</v>
       </c>
       <c r="D51">
-        <v>10.099299999999999</v>
+        <v>64.961600000000004</v>
       </c>
       <c r="E51">
-        <v>514</v>
+        <v>2473</v>
       </c>
       <c r="F51">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="G51">
-        <v>543</v>
+        <v>137</v>
       </c>
       <c r="H51">
-        <v>453</v>
+        <v>2219</v>
       </c>
       <c r="I51">
-        <v>996</v>
+        <v>2356</v>
       </c>
       <c r="J51">
-        <v>193.77430000000001</v>
+        <v>95.268900000000002</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>71.407899999999998</v>
+        <v>11.284000000000001</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>10.642200000000001</v>
       </c>
       <c r="E52">
-        <v>2770</v>
+        <v>514</v>
       </c>
       <c r="F52">
-        <v>1978</v>
+        <v>58</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="H52">
-        <v>792</v>
+        <v>456</v>
       </c>
       <c r="I52">
-        <v>792</v>
+        <v>943</v>
       </c>
       <c r="J52">
-        <v>28.592099999999999</v>
+        <v>183.46299999999999</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2270,63 +2267,63 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>2.6819999999999999</v>
+        <v>50</v>
       </c>
       <c r="D53">
-        <v>58.333300000000001</v>
+        <v>100</v>
       </c>
       <c r="E53">
-        <v>261</v>
+        <v>2770</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>1385</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>254</v>
+        <v>1385</v>
       </c>
       <c r="I53">
-        <v>259</v>
+        <v>1385</v>
       </c>
       <c r="J53">
-        <v>99.233699999999999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>0.68966000000000005</v>
+        <v>1.9157</v>
       </c>
       <c r="D54">
-        <v>72</v>
+        <v>62.5</v>
       </c>
       <c r="E54">
-        <v>2610</v>
+        <v>261</v>
       </c>
       <c r="F54">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>2592</v>
+        <v>256</v>
       </c>
       <c r="I54">
-        <v>2599</v>
+        <v>259</v>
       </c>
       <c r="J54">
-        <v>99.578500000000005</v>
+        <v>99.233699999999999</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2334,31 +2331,31 @@
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>7.3945999999999996</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>92.344499999999996</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>2610</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="G55">
-        <v>1824</v>
+        <v>16</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>2417</v>
       </c>
       <c r="I55">
-        <v>1836</v>
+        <v>2433</v>
       </c>
       <c r="J55">
-        <v>15300</v>
+        <v>93.218400000000003</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2366,95 +2363,95 @@
         <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56">
-        <v>34.782600000000002</v>
+        <v>8.3332999999999995</v>
       </c>
       <c r="D56">
-        <v>2.6667000000000001</v>
+        <v>7.9617999999999994E-2</v>
       </c>
       <c r="E56">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>584</v>
+        <v>1255</v>
       </c>
       <c r="H56">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I56">
-        <v>614</v>
+        <v>1266</v>
       </c>
       <c r="J56">
-        <v>1334.7826</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>66.908000000000001</v>
+        <v>21.739100000000001</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>2.3641000000000001</v>
       </c>
       <c r="E57">
-        <v>2762</v>
+        <v>46</v>
       </c>
       <c r="F57">
-        <v>1848</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="H57">
-        <v>914</v>
+        <v>36</v>
       </c>
       <c r="I57">
-        <v>914</v>
+        <v>449</v>
       </c>
       <c r="J57">
-        <v>33.091999999999999</v>
+        <v>976.08699999999999</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58">
-        <v>0.22328999999999999</v>
+        <v>86.857299999999995</v>
       </c>
       <c r="D58">
         <v>100</v>
       </c>
       <c r="E58">
-        <v>3135</v>
+        <v>2762</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>2399</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>3128</v>
+        <v>363</v>
       </c>
       <c r="I58">
-        <v>3128</v>
+        <v>363</v>
       </c>
       <c r="J58">
-        <v>99.776700000000005</v>
+        <v>13.1427</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2462,31 +2459,31 @@
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>57.142899999999997</v>
+        <v>0.44657000000000002</v>
       </c>
       <c r="D59">
-        <v>0.47393000000000002</v>
+        <v>100</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>3135</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G59">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>3121</v>
       </c>
       <c r="I59">
-        <v>843</v>
+        <v>3121</v>
       </c>
       <c r="J59">
-        <v>12042.857099999999</v>
+        <v>99.553399999999996</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2494,63 +2491,63 @@
         <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>28.571400000000001</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.55556000000000005</v>
       </c>
       <c r="E60">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="H60">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>124</v>
+        <v>363</v>
       </c>
       <c r="J60">
-        <v>113.7615</v>
+        <v>5185.7142999999996</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C61">
-        <v>16.666699999999999</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0.10718</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>932</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="I61">
-        <v>937</v>
+        <v>117</v>
       </c>
       <c r="J61">
-        <v>15616.6667</v>
+        <v>107.3394</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2558,95 +2555,95 @@
         <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C62">
-        <v>29.2683</v>
+        <v>18.627500000000001</v>
       </c>
       <c r="D62">
-        <v>3.3149000000000002</v>
+        <v>97.555000000000007</v>
       </c>
       <c r="E62">
-        <v>123</v>
+        <v>2142</v>
       </c>
       <c r="F62">
-        <v>36</v>
+        <v>399</v>
       </c>
       <c r="G62">
-        <v>1050</v>
+        <v>10</v>
       </c>
       <c r="H62">
-        <v>87</v>
+        <v>1743</v>
       </c>
       <c r="I62">
-        <v>1137</v>
+        <v>1753</v>
       </c>
       <c r="J62">
-        <v>924.39020000000005</v>
+        <v>81.839399999999998</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>0.31746000000000002</v>
+        <v>16.666699999999999</v>
       </c>
       <c r="D63">
-        <v>42.1053</v>
+        <v>0.15243999999999999</v>
       </c>
       <c r="E63">
-        <v>2520</v>
+        <v>6</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>11</v>
+        <v>655</v>
       </c>
       <c r="H63">
-        <v>2512</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>2523</v>
+        <v>660</v>
       </c>
       <c r="J63">
-        <v>100.119</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>16.666699999999999</v>
+        <v>29.2683</v>
       </c>
       <c r="D64">
-        <v>5.8139999999999997E-2</v>
+        <v>3.9956</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G64">
-        <v>1719</v>
+        <v>865</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="I64">
-        <v>1724</v>
+        <v>952</v>
       </c>
       <c r="J64">
-        <v>28733.333299999998</v>
+        <v>773.9837</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2654,95 +2651,95 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C65">
-        <v>4.2675999999999998</v>
+        <v>0.43651000000000001</v>
       </c>
       <c r="D65">
-        <v>31.896599999999999</v>
+        <v>68.75</v>
       </c>
       <c r="E65">
-        <v>867</v>
+        <v>2520</v>
       </c>
       <c r="F65">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G65">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>830</v>
+        <v>2509</v>
       </c>
       <c r="I65">
-        <v>909</v>
+        <v>2514</v>
       </c>
       <c r="J65">
-        <v>104.8443</v>
+        <v>99.761899999999997</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C66">
-        <v>7.0587999999999997</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>58.5366</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>340</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>17</v>
+        <v>995</v>
       </c>
       <c r="H66">
-        <v>316</v>
+        <v>6</v>
       </c>
       <c r="I66">
-        <v>333</v>
+        <v>1001</v>
       </c>
       <c r="J66">
-        <v>97.941199999999995</v>
+        <v>16683.333299999998</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>3.6909000000000001</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>31.068000000000001</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>867</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G67">
-        <v>532</v>
+        <v>71</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>835</v>
       </c>
       <c r="I67">
-        <v>535</v>
+        <v>906</v>
       </c>
       <c r="J67">
-        <v>17833.333299999998</v>
+        <v>104.4983</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2750,95 +2747,95 @@
         <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C68">
-        <v>46.631</v>
+        <v>2.9411999999999998</v>
       </c>
       <c r="D68">
-        <v>58.720500000000001</v>
+        <v>45.454500000000003</v>
       </c>
       <c r="E68">
-        <v>1870</v>
+        <v>340</v>
       </c>
       <c r="F68">
-        <v>872</v>
+        <v>10</v>
       </c>
       <c r="G68">
-        <v>613</v>
+        <v>12</v>
       </c>
       <c r="H68">
-        <v>998</v>
+        <v>330</v>
       </c>
       <c r="I68">
-        <v>1611</v>
+        <v>342</v>
       </c>
       <c r="J68">
-        <v>86.149699999999996</v>
+        <v>100.5882</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C69">
-        <v>3.2679999999999998</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>4.2253999999999996</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="H69">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>784</v>
+        <v>317</v>
       </c>
       <c r="J69">
-        <v>170.80609999999999</v>
+        <v>10566.6667</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>9.6004000000000005</v>
+        <v>84.0107</v>
       </c>
       <c r="D70">
-        <v>71.193399999999997</v>
+        <v>92.520600000000002</v>
       </c>
       <c r="E70">
-        <v>1802</v>
+        <v>1870</v>
       </c>
       <c r="F70">
-        <v>173</v>
+        <v>1571</v>
       </c>
       <c r="G70">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="H70">
-        <v>1629</v>
+        <v>299</v>
       </c>
       <c r="I70">
-        <v>1699</v>
+        <v>426</v>
       </c>
       <c r="J70">
-        <v>94.284099999999995</v>
+        <v>22.7807</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2846,159 +2843,159 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>65.384600000000006</v>
+        <v>4.3573000000000004</v>
       </c>
       <c r="D71">
-        <v>1.665</v>
+        <v>3.2949000000000002</v>
       </c>
       <c r="E71">
-        <v>26</v>
+        <v>459</v>
       </c>
       <c r="F71">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G71">
-        <v>1004</v>
+        <v>587</v>
       </c>
       <c r="H71">
-        <v>9</v>
+        <v>439</v>
       </c>
       <c r="I71">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="J71">
-        <v>3896.1538</v>
+        <v>223.52940000000001</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C72">
-        <v>71.788499999999999</v>
+        <v>17.757999999999999</v>
       </c>
       <c r="D72">
-        <v>99.931200000000004</v>
+        <v>62.992100000000001</v>
       </c>
       <c r="E72">
-        <v>2024</v>
+        <v>1802</v>
       </c>
       <c r="F72">
-        <v>1453</v>
+        <v>320</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="H72">
-        <v>571</v>
+        <v>1482</v>
       </c>
       <c r="I72">
-        <v>572</v>
+        <v>1670</v>
       </c>
       <c r="J72">
-        <v>28.260899999999999</v>
+        <v>92.674800000000005</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>30.769200000000001</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1.581</v>
       </c>
       <c r="E73">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G73">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="H73">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I73">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="J73">
-        <v>1703.5714</v>
+        <v>1984.6153999999999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>5.7009999999999996</v>
+        <v>33.250999999999998</v>
       </c>
       <c r="D74">
-        <v>96.428600000000003</v>
+        <v>99.851600000000005</v>
       </c>
       <c r="E74">
-        <v>2368</v>
+        <v>2024</v>
       </c>
       <c r="F74">
-        <v>135</v>
+        <v>673</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>2233</v>
+        <v>1351</v>
       </c>
       <c r="I74">
-        <v>2238</v>
+        <v>1352</v>
       </c>
       <c r="J74">
-        <v>94.510099999999994</v>
+        <v>66.798400000000001</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C75">
-        <v>50</v>
+        <v>3.5714000000000001</v>
       </c>
       <c r="D75">
-        <v>0.3337</v>
+        <v>0.11751</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>896</v>
+        <v>850</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I75">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="J75">
-        <v>14983.3333</v>
+        <v>3132.1428999999998</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3006,95 +3003,95 @@
         <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C76">
-        <v>47.692300000000003</v>
+        <v>12.7111</v>
       </c>
       <c r="D76">
-        <v>3.1156000000000001</v>
+        <v>95.859899999999996</v>
       </c>
       <c r="E76">
-        <v>65</v>
+        <v>2368</v>
       </c>
       <c r="F76">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="G76">
-        <v>964</v>
+        <v>13</v>
       </c>
       <c r="H76">
-        <v>34</v>
+        <v>2067</v>
       </c>
       <c r="I76">
-        <v>998</v>
+        <v>2080</v>
       </c>
       <c r="J76">
-        <v>1535.3846000000001</v>
+        <v>87.837800000000001</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C77">
-        <v>69.360299999999995</v>
+        <v>33.333300000000001</v>
       </c>
       <c r="D77">
-        <v>92.7928</v>
+        <v>0.31596000000000002</v>
       </c>
       <c r="E77">
-        <v>1188</v>
+        <v>6</v>
       </c>
       <c r="F77">
-        <v>824</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>64</v>
+        <v>631</v>
       </c>
       <c r="H77">
-        <v>364</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>428</v>
+        <v>635</v>
       </c>
       <c r="J77">
-        <v>36.026899999999998</v>
+        <v>10583.3333</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>18.6327</v>
+        <v>43.076900000000002</v>
       </c>
       <c r="D78">
-        <v>79.885099999999994</v>
+        <v>3.3980999999999999</v>
       </c>
       <c r="E78">
-        <v>746</v>
+        <v>65</v>
       </c>
       <c r="F78">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="G78">
-        <v>35</v>
+        <v>796</v>
       </c>
       <c r="H78">
-        <v>607</v>
+        <v>37</v>
       </c>
       <c r="I78">
-        <v>642</v>
+        <v>833</v>
       </c>
       <c r="J78">
-        <v>86.058999999999997</v>
+        <v>1281.5385000000001</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3102,31 +3099,31 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C79">
-        <v>19.148900000000001</v>
+        <v>68.518500000000003</v>
       </c>
       <c r="D79">
-        <v>7.8602999999999996</v>
+        <v>91.563599999999994</v>
       </c>
       <c r="E79">
-        <v>188</v>
+        <v>1188</v>
       </c>
       <c r="F79">
-        <v>36</v>
+        <v>814</v>
       </c>
       <c r="G79">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="H79">
-        <v>152</v>
+        <v>374</v>
       </c>
       <c r="I79">
-        <v>574</v>
+        <v>449</v>
       </c>
       <c r="J79">
-        <v>305.31909999999999</v>
+        <v>37.794600000000003</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3134,95 +3131,95 @@
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C80">
-        <v>53.723399999999998</v>
+        <v>24.262699999999999</v>
       </c>
       <c r="D80">
-        <v>39.607799999999997</v>
+        <v>59.344299999999997</v>
       </c>
       <c r="E80">
-        <v>376</v>
+        <v>746</v>
       </c>
       <c r="F80">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G80">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="H80">
-        <v>174</v>
+        <v>565</v>
       </c>
       <c r="I80">
-        <v>482</v>
+        <v>689</v>
       </c>
       <c r="J80">
-        <v>128.19149999999999</v>
+        <v>92.359200000000001</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C81">
-        <v>18.272600000000001</v>
+        <v>22.872299999999999</v>
       </c>
       <c r="D81">
-        <v>94.573599999999999</v>
+        <v>7.6786000000000003</v>
       </c>
       <c r="E81">
-        <v>2003</v>
+        <v>188</v>
       </c>
       <c r="F81">
-        <v>366</v>
+        <v>43</v>
       </c>
       <c r="G81">
-        <v>21</v>
+        <v>517</v>
       </c>
       <c r="H81">
-        <v>1637</v>
+        <v>145</v>
       </c>
       <c r="I81">
-        <v>1658</v>
+        <v>662</v>
       </c>
       <c r="J81">
-        <v>82.775800000000004</v>
+        <v>352.1277</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C82">
-        <v>60.109299999999998</v>
+        <v>40.4255</v>
       </c>
       <c r="D82">
-        <v>7.0648999999999997</v>
+        <v>41.8733</v>
       </c>
       <c r="E82">
-        <v>183</v>
+        <v>376</v>
       </c>
       <c r="F82">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G82">
-        <v>1447</v>
+        <v>211</v>
       </c>
       <c r="H82">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="I82">
-        <v>1520</v>
+        <v>435</v>
       </c>
       <c r="J82">
-        <v>830.60109999999997</v>
+        <v>115.6915</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3230,319 +3227,319 @@
         <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>31.468499999999999</v>
+        <v>43.0854</v>
       </c>
       <c r="D83">
-        <v>46.232900000000001</v>
+        <v>96.857500000000002</v>
       </c>
       <c r="E83">
-        <v>429</v>
+        <v>2003</v>
       </c>
       <c r="F83">
-        <v>135</v>
+        <v>863</v>
       </c>
       <c r="G83">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="H83">
-        <v>294</v>
+        <v>1140</v>
       </c>
       <c r="I83">
-        <v>451</v>
+        <v>1168</v>
       </c>
       <c r="J83">
-        <v>105.12820000000001</v>
+        <v>58.3125</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>63.771599999999999</v>
+        <v>46.994500000000002</v>
       </c>
       <c r="D84">
-        <v>98.893000000000001</v>
+        <v>9.6521000000000008</v>
       </c>
       <c r="E84">
-        <v>1681</v>
+        <v>183</v>
       </c>
       <c r="F84">
-        <v>1072</v>
+        <v>86</v>
       </c>
       <c r="G84">
-        <v>12</v>
+        <v>805</v>
       </c>
       <c r="H84">
-        <v>609</v>
+        <v>97</v>
       </c>
       <c r="I84">
-        <v>621</v>
+        <v>902</v>
       </c>
       <c r="J84">
-        <v>36.942300000000003</v>
+        <v>492.89620000000002</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
       </c>
       <c r="C85">
-        <v>56.490400000000001</v>
+        <v>15.1515</v>
       </c>
       <c r="D85">
-        <v>43.278100000000002</v>
+        <v>32.5</v>
       </c>
       <c r="E85">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="F85">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="G85">
-        <v>308</v>
+        <v>135</v>
       </c>
       <c r="H85">
-        <v>181</v>
+        <v>364</v>
       </c>
       <c r="I85">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="J85">
-        <v>117.54810000000001</v>
+        <v>116.31699999999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86">
-        <v>65.275700000000001</v>
+        <v>10.9459</v>
       </c>
       <c r="D86">
-        <v>98.871300000000005</v>
+        <v>98.395700000000005</v>
       </c>
       <c r="E86">
-        <v>1342</v>
+        <v>1681</v>
       </c>
       <c r="F86">
-        <v>876</v>
+        <v>184</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>466</v>
+        <v>1497</v>
       </c>
       <c r="I86">
-        <v>476</v>
+        <v>1500</v>
       </c>
       <c r="J86">
-        <v>35.4694</v>
+        <v>89.232600000000005</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
         <v>14</v>
       </c>
       <c r="C87">
-        <v>50.381700000000002</v>
+        <v>57.211500000000001</v>
       </c>
       <c r="D87">
-        <v>73.801900000000003</v>
+        <v>43.510100000000001</v>
       </c>
       <c r="E87">
-        <v>917</v>
+        <v>416</v>
       </c>
       <c r="F87">
-        <v>462</v>
+        <v>238</v>
       </c>
       <c r="G87">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="H87">
-        <v>455</v>
+        <v>178</v>
       </c>
       <c r="I87">
-        <v>619</v>
+        <v>487</v>
       </c>
       <c r="J87">
-        <v>67.502700000000004</v>
+        <v>117.0673</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="1">
-        <v>96.833799999999997</v>
-      </c>
-      <c r="D88" s="1">
-        <v>66.245500000000007</v>
-      </c>
-      <c r="E88" s="1">
-        <v>758</v>
-      </c>
-      <c r="F88" s="1">
-        <v>734</v>
-      </c>
-      <c r="G88" s="1">
-        <v>374</v>
-      </c>
-      <c r="H88" s="1">
-        <v>24</v>
-      </c>
-      <c r="I88" s="1">
-        <v>398</v>
-      </c>
-      <c r="J88" s="1">
-        <v>52.506599999999999</v>
+      <c r="A88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>61.3264</v>
+      </c>
+      <c r="D88">
+        <v>93.735799999999998</v>
+      </c>
+      <c r="E88">
+        <v>1342</v>
+      </c>
+      <c r="F88">
+        <v>823</v>
+      </c>
+      <c r="G88">
+        <v>55</v>
+      </c>
+      <c r="H88">
+        <v>519</v>
+      </c>
+      <c r="I88">
+        <v>574</v>
+      </c>
+      <c r="J88">
+        <v>42.771999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
       </c>
       <c r="C89">
-        <v>16.809799999999999</v>
+        <v>48.963999999999999</v>
       </c>
       <c r="D89">
-        <v>96.478899999999996</v>
+        <v>63.150500000000001</v>
       </c>
       <c r="E89">
-        <v>815</v>
+        <v>917</v>
       </c>
       <c r="F89">
-        <v>137</v>
+        <v>449</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="H89">
-        <v>678</v>
+        <v>468</v>
       </c>
       <c r="I89">
-        <v>683</v>
+        <v>730</v>
       </c>
       <c r="J89">
-        <v>83.803700000000006</v>
+        <v>79.607399999999998</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C90">
-        <v>1.708</v>
+        <v>91.292900000000003</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>66.220100000000002</v>
       </c>
       <c r="E90">
-        <v>1815</v>
+        <v>758</v>
       </c>
       <c r="F90">
-        <v>31</v>
+        <v>692</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="H90">
-        <v>1784</v>
+        <v>66</v>
       </c>
       <c r="I90">
-        <v>1784</v>
+        <v>419</v>
       </c>
       <c r="J90">
-        <v>98.292000000000002</v>
+        <v>55.277000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C91">
-        <v>0.38288</v>
+        <v>1.1043000000000001</v>
       </c>
       <c r="D91">
-        <v>100</v>
+        <v>42.857100000000003</v>
       </c>
       <c r="E91">
-        <v>2873</v>
+        <v>815</v>
       </c>
       <c r="F91">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H91">
-        <v>2862</v>
+        <v>806</v>
       </c>
       <c r="I91">
-        <v>2862</v>
+        <v>818</v>
       </c>
       <c r="J91">
-        <v>99.617099999999994</v>
+        <v>100.3681</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C92">
-        <v>33.333300000000001</v>
+        <v>1.1019000000000001</v>
       </c>
       <c r="D92">
-        <v>0.38388</v>
+        <v>100</v>
       </c>
       <c r="E92">
-        <v>18</v>
+        <v>1815</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G92">
-        <v>1557</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>12</v>
+        <v>1795</v>
       </c>
       <c r="I92">
-        <v>1569</v>
+        <v>1795</v>
       </c>
       <c r="J92">
-        <v>8716.6666999999998</v>
+        <v>98.898099999999999</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3550,136 +3547,199 @@
         <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C93">
-        <v>52.631599999999999</v>
+        <v>5.8823999999999996</v>
       </c>
       <c r="D93">
-        <v>13.9665</v>
+        <v>100</v>
       </c>
       <c r="E93">
-        <v>190</v>
+        <v>2873</v>
       </c>
       <c r="F93">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="G93">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>90</v>
+        <v>2704</v>
       </c>
       <c r="I93">
-        <v>706</v>
+        <v>2704</v>
       </c>
       <c r="J93">
-        <v>371.57889999999998</v>
+        <v>94.117599999999996</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C94">
-        <v>69.199600000000004</v>
+        <v>27.777799999999999</v>
       </c>
       <c r="D94">
-        <v>100</v>
+        <v>0.62343999999999999</v>
       </c>
       <c r="E94">
-        <v>2711</v>
+        <v>18</v>
       </c>
       <c r="F94">
-        <v>1876</v>
+        <v>5</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="H94">
-        <v>835</v>
+        <v>13</v>
       </c>
       <c r="I94">
-        <v>835</v>
+        <v>810</v>
       </c>
       <c r="J94">
-        <v>30.8004</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>52.631599999999999</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>14.005599999999999</v>
       </c>
       <c r="E95">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G95">
-        <v>4</v>
+        <v>614</v>
       </c>
       <c r="H95">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="I95">
-        <v>53</v>
+        <v>704</v>
       </c>
       <c r="J95">
-        <v>106</v>
+        <v>370.52629999999999</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>95.426000000000002</v>
+      </c>
+      <c r="D96">
+        <v>99.884200000000007</v>
+      </c>
+      <c r="E96">
+        <v>2711</v>
+      </c>
+      <c r="F96">
+        <v>2587</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>124</v>
+      </c>
+      <c r="I96">
+        <v>127</v>
+      </c>
+      <c r="J96">
+        <v>4.6845999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+      <c r="E97">
+        <v>50</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>48</v>
+      </c>
+      <c r="I97">
+        <v>48</v>
+      </c>
+      <c r="J97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>65</v>
       </c>
-      <c r="C96">
-        <f>F96/(F96+H96)*100</f>
-        <v>38.57620339422445</v>
-      </c>
-      <c r="D96">
-        <f>F96/(F96+G96)*100</f>
-        <v>58.497718497718495</v>
-      </c>
-      <c r="E96">
-        <f>SUM(E2:E95)</f>
-        <v>108007</v>
-      </c>
-      <c r="F96">
-        <f t="shared" ref="F96:G96" si="0">SUM(F2:F95)</f>
-        <v>41665</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="0"/>
-        <v>29560</v>
-      </c>
-      <c r="H96">
-        <f>SUM(H2:H95)</f>
-        <v>66342</v>
-      </c>
-      <c r="I96">
-        <f>SUM(I2:I95)</f>
-        <v>95902</v>
-      </c>
-      <c r="J96">
-        <f>I96/E96*100</f>
-        <v>88.792393085633336</v>
+      <c r="C98">
+        <f>F98/(F98+H98)*100</f>
+        <v>37.225290921788975</v>
+      </c>
+      <c r="D98">
+        <f>F98/(F98+G98)*100</f>
+        <v>65.093337139775741</v>
+      </c>
+      <c r="E98">
+        <f>SUM(E2:E97)</f>
+        <v>110253</v>
+      </c>
+      <c r="F98">
+        <f>SUM(F2:F97)</f>
+        <v>41042</v>
+      </c>
+      <c r="G98">
+        <f>SUM(G2:G97)</f>
+        <v>22009</v>
+      </c>
+      <c r="H98">
+        <f>SUM(H2:H97)</f>
+        <v>69211</v>
+      </c>
+      <c r="I98">
+        <f>SUM(I2:I97)</f>
+        <v>91220</v>
+      </c>
+      <c r="J98">
+        <f>I98/E98*100</f>
+        <v>82.736977678611922</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J96" xr:uid="{5C402FB0-9D75-47A2-B46C-DC817BE3EB6E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DeteccionArritmiasTotal.xlsx
+++ b/DeteccionArritmiasTotal.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\algoritmoArritmias_conPanTompkins2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD97C9D8-EACA-4729-964D-7F5FC614196F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EED906A-C841-4796-BA6F-EAA384A996CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{63D180E8-B5AE-44F4-B7B8-6F81A7E749F1}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{63D180E8-B5AE-44F4-B7B8-6F81A7E749F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$98</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -586,7 +589,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+      <selection activeCell="D2" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,6 +3743,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J98" xr:uid="{BC012900-FA7B-4FF1-94F3-DE96CCAA67BA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DeteccionArritmiasTotal.xlsx
+++ b/DeteccionArritmiasTotal.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\algoritmoArritmias_conPanTompkins2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Documents\Arritmias\algoritmoArritmias-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EED906A-C841-4796-BA6F-EAA384A996CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D339B964-2F81-4A3A-9209-E1FFEB258134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{63D180E8-B5AE-44F4-B7B8-6F81A7E749F1}"/>
+    <workbookView xWindow="-14535" yWindow="345" windowWidth="2400" windowHeight="585" xr2:uid="{4C325BAF-2CF2-414D-8FF5-F6E93F90FF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$98</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="65">
   <si>
     <t>Registro</t>
   </si>
@@ -232,9 +229,6 @@
   </si>
   <si>
     <t>234m</t>
-  </si>
-  <si>
-    <t>48 registros</t>
   </si>
 </sst>
 </file>
@@ -585,21 +579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70995F33-8010-4EDA-BCB3-CD6E74B57F56}">
-  <dimension ref="A1:J98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6E7827-8239-4A26-93D7-F1ED8029C7A1}">
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="C1:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190:J191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -673,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>95.568600000000004</v>
+        <v>96.081599999999995</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
-        <v>1873</v>
+        <v>1863</v>
       </c>
       <c r="F3">
         <v>1790</v>
@@ -688,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I3">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>4.4314</v>
+        <v>3.9184000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,28 +692,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>65.686300000000003</v>
+        <v>64.7059</v>
       </c>
       <c r="D4">
-        <v>30.044799999999999</v>
+        <v>46.808500000000002</v>
       </c>
       <c r="E4">
         <v>102</v>
       </c>
       <c r="F4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="J4">
-        <v>187.25489999999999</v>
+        <v>108.8235</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,28 +724,28 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>54.004800000000003</v>
+        <v>54.676299999999998</v>
       </c>
       <c r="D5">
-        <v>95.7483</v>
+        <v>95.878900000000002</v>
       </c>
       <c r="E5">
         <v>2085</v>
       </c>
       <c r="F5">
-        <v>1126</v>
+        <v>1140</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="I5">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="J5">
-        <v>48.393300000000004</v>
+        <v>47.673900000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -769,28 +756,28 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>73.349299999999999</v>
+        <v>73.512500000000003</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="F6">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="I6">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J6">
-        <v>26.650700000000001</v>
+        <v>26.487500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,28 +788,28 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>16.5563</v>
+        <v>17.993099999999998</v>
       </c>
       <c r="D7">
-        <v>29.239799999999999</v>
+        <v>36.1111</v>
       </c>
       <c r="E7">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="H7">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="I7">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="J7">
-        <v>123.5099</v>
+        <v>113.8408</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,28 +820,28 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>35.183300000000003</v>
+        <v>33.762900000000002</v>
       </c>
       <c r="D8">
-        <v>82.754499999999993</v>
+        <v>81.875</v>
       </c>
       <c r="E8">
-        <v>1964</v>
+        <v>1940</v>
       </c>
       <c r="F8">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="G8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H8">
-        <v>1273</v>
+        <v>1285</v>
       </c>
       <c r="I8">
-        <v>1417</v>
+        <v>1430</v>
       </c>
       <c r="J8">
-        <v>72.148700000000005</v>
+        <v>73.711299999999994</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,28 +852,28 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>11.5985</v>
+        <v>11.858499999999999</v>
       </c>
       <c r="D9">
-        <v>99.680499999999995</v>
+        <v>99.673199999999994</v>
       </c>
       <c r="E9">
-        <v>2690</v>
+        <v>2572</v>
       </c>
       <c r="F9">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2378</v>
+        <v>2267</v>
       </c>
       <c r="I9">
-        <v>2379</v>
+        <v>2268</v>
       </c>
       <c r="J9">
-        <v>88.438699999999997</v>
+        <v>88.180400000000006</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,28 +884,28 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>49.039099999999998</v>
+        <v>49.966299999999997</v>
       </c>
       <c r="D10">
-        <v>99.864999999999995</v>
+        <v>99.865200000000002</v>
       </c>
       <c r="E10">
-        <v>1509</v>
+        <v>1483</v>
       </c>
       <c r="F10">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>769</v>
+        <v>742</v>
       </c>
       <c r="I10">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="J10">
-        <v>51.027200000000001</v>
+        <v>50.101100000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -961,13 +948,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>54.595599999999997</v>
+        <v>54.898299999999999</v>
       </c>
       <c r="D12">
         <v>48.292700000000004</v>
       </c>
       <c r="E12">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F12">
         <v>297</v>
@@ -976,13 +963,13 @@
         <v>318</v>
       </c>
       <c r="H12">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I12">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J12">
-        <v>103.8603</v>
+        <v>103.8817</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>95.418400000000005</v>
+        <v>95.5077</v>
       </c>
       <c r="D13">
         <v>99.804400000000001</v>
       </c>
       <c r="E13">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F13">
         <v>2041</v>
@@ -1008,13 +995,13 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I13">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J13">
-        <v>4.7686000000000002</v>
+        <v>4.6795</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1025,28 +1012,28 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>16.017600000000002</v>
+        <v>16.524699999999999</v>
       </c>
       <c r="D14">
-        <v>99.658699999999996</v>
+        <v>99.657499999999999</v>
       </c>
       <c r="E14">
-        <v>1823</v>
+        <v>1761</v>
       </c>
       <c r="F14">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1531</v>
+        <v>1470</v>
       </c>
       <c r="I14">
-        <v>1532</v>
+        <v>1471</v>
       </c>
       <c r="J14">
-        <v>84.037300000000002</v>
+        <v>83.5321</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,28 +1044,28 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>12.273099999999999</v>
+        <v>3.4754999999999998</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
       <c r="E15">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="F15">
-        <v>311</v>
+        <v>88</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2223</v>
+        <v>2444</v>
       </c>
       <c r="I15">
-        <v>2223</v>
+        <v>2444</v>
       </c>
       <c r="J15">
-        <v>87.726900000000001</v>
+        <v>96.524500000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1089,28 +1076,28 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>0.93808999999999998</v>
+        <v>1.1776</v>
       </c>
       <c r="D16">
-        <v>95.238100000000003</v>
+        <v>96.153800000000004</v>
       </c>
       <c r="E16">
-        <v>2132</v>
+        <v>2123</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2112</v>
+        <v>2098</v>
       </c>
       <c r="I16">
-        <v>2113</v>
+        <v>2099</v>
       </c>
       <c r="J16">
-        <v>99.108800000000002</v>
+        <v>98.869500000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,13 +1108,13 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>25.6571</v>
+        <v>25.758199999999999</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17">
-        <v>2549</v>
+        <v>2539</v>
       </c>
       <c r="F17">
         <v>654</v>
@@ -1136,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="I17">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="J17">
-        <v>74.3429</v>
+        <v>74.241799999999998</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1153,28 +1140,28 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>73.593299999999999</v>
+        <v>73.728300000000004</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>99.848600000000005</v>
       </c>
       <c r="E18">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="F18">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I18">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J18">
-        <v>26.406700000000001</v>
+        <v>26.383500000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1185,28 +1172,28 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>16.296299999999999</v>
+        <v>15.865399999999999</v>
       </c>
       <c r="D19">
-        <v>66.442999999999998</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>1215</v>
+        <v>1872</v>
       </c>
       <c r="F19">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1017</v>
+        <v>1575</v>
       </c>
       <c r="I19">
-        <v>1117</v>
+        <v>1575</v>
       </c>
       <c r="J19">
-        <v>91.934200000000004</v>
+        <v>84.134600000000006</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1220,7 +1207,7 @@
         <v>57.142899999999997</v>
       </c>
       <c r="D20">
-        <v>0.27972000000000002</v>
+        <v>0.27951999999999999</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -1229,16 +1216,16 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
       <c r="I20">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="J20">
-        <v>20414.2857</v>
+        <v>20428.571400000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1249,28 +1236,28 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>84.599699999999999</v>
+        <v>84.894999999999996</v>
       </c>
       <c r="D21">
         <v>100</v>
       </c>
       <c r="E21">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="F21">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I21">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J21">
-        <v>15.4003</v>
+        <v>15.105</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1281,13 +1268,13 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>56.611600000000003</v>
+        <v>56.799300000000002</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22">
-        <v>2420</v>
+        <v>2412</v>
       </c>
       <c r="F22">
         <v>1370</v>
@@ -1296,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="I22">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="J22">
-        <v>43.388399999999997</v>
+        <v>43.200699999999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,13 +1300,13 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>0.78022999999999998</v>
+        <v>0.78176000000000001</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="F23">
         <v>12</v>
@@ -1328,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="I23">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="J23">
-        <v>99.219800000000006</v>
+        <v>99.218199999999996</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,28 +1332,28 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>34.826099999999997</v>
+        <v>35.136299999999999</v>
       </c>
       <c r="D24">
         <v>100</v>
       </c>
       <c r="E24">
-        <v>2300</v>
+        <v>2274</v>
       </c>
       <c r="F24">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1499</v>
+        <v>1475</v>
       </c>
       <c r="I24">
-        <v>1499</v>
+        <v>1475</v>
       </c>
       <c r="J24">
-        <v>65.173900000000003</v>
+        <v>64.863699999999994</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1377,28 +1364,28 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>63.7333</v>
+        <v>63.7517</v>
       </c>
       <c r="D25">
-        <v>92.905699999999996</v>
+        <v>92.898799999999994</v>
       </c>
       <c r="E25">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F25">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G25">
         <v>73</v>
       </c>
       <c r="H25">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I25">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J25">
-        <v>41.133299999999998</v>
+        <v>41.121499999999997</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,13 +1396,13 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>42.362499999999997</v>
+        <v>42.535800000000002</v>
       </c>
       <c r="D26">
         <v>50.6083</v>
       </c>
       <c r="E26">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F26">
         <v>208</v>
@@ -1424,13 +1411,13 @@
         <v>203</v>
       </c>
       <c r="H26">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I26">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J26">
-        <v>98.981700000000004</v>
+        <v>98.977500000000006</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,13 +1428,13 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>21.706700000000001</v>
+        <v>21.846499999999999</v>
       </c>
       <c r="D27">
         <v>100</v>
       </c>
       <c r="E27">
-        <v>1875</v>
+        <v>1863</v>
       </c>
       <c r="F27">
         <v>407</v>
@@ -1456,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="I27">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="J27">
-        <v>78.293300000000002</v>
+        <v>78.153499999999994</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1473,13 +1460,13 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>99.192899999999995</v>
+        <v>99.272999999999996</v>
       </c>
       <c r="D28">
         <v>100</v>
       </c>
       <c r="E28">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="F28">
         <v>2458</v>
@@ -1488,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I28">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J28">
-        <v>0.80710000000000004</v>
+        <v>0.72697999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1537,13 +1524,13 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>11.914099999999999</v>
+        <v>11.929600000000001</v>
       </c>
       <c r="D30">
         <v>94.329899999999995</v>
       </c>
       <c r="E30">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="F30">
         <v>183</v>
@@ -1552,13 +1539,13 @@
         <v>11</v>
       </c>
       <c r="H30">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I30">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="J30">
-        <v>88.802099999999996</v>
+        <v>88.787499999999994</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1601,28 +1588,28 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>28.531300000000002</v>
+        <v>27.4678</v>
       </c>
       <c r="D32">
-        <v>93.981499999999997</v>
+        <v>94.117599999999996</v>
       </c>
       <c r="E32">
-        <v>1423</v>
+        <v>1398</v>
       </c>
       <c r="F32">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="G32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I32">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="J32">
-        <v>73.295900000000003</v>
+        <v>74.248900000000006</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1665,28 +1652,28 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>29.215399999999999</v>
+        <v>29.830500000000001</v>
       </c>
       <c r="D34">
-        <v>75.430999999999997</v>
+        <v>75.536500000000004</v>
       </c>
       <c r="E34">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="F34">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G34">
         <v>114</v>
       </c>
       <c r="H34">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="I34">
-        <v>962</v>
+        <v>942</v>
       </c>
       <c r="J34">
-        <v>80.3005</v>
+        <v>79.830500000000001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1697,28 +1684,28 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>3.8355999999999999</v>
+        <v>4.0639000000000003</v>
       </c>
       <c r="D35">
-        <v>15.2174</v>
+        <v>15.6425</v>
       </c>
       <c r="E35">
-        <v>730</v>
+        <v>689</v>
       </c>
       <c r="F35">
         <v>28</v>
       </c>
       <c r="G35">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H35">
-        <v>702</v>
+        <v>661</v>
       </c>
       <c r="I35">
-        <v>858</v>
+        <v>812</v>
       </c>
       <c r="J35">
-        <v>117.5342</v>
+        <v>117.852</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1729,28 +1716,28 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>14.160299999999999</v>
+        <v>14.27</v>
       </c>
       <c r="D36">
-        <v>38.738700000000001</v>
+        <v>39.039000000000001</v>
       </c>
       <c r="E36">
         <v>911</v>
       </c>
       <c r="F36">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G36">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H36">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I36">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J36">
-        <v>108.23269999999999</v>
+        <v>108.0132</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1761,13 +1748,13 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>50.688699999999997</v>
+        <v>50.969499999999996</v>
       </c>
       <c r="D37">
         <v>28.264199999999999</v>
       </c>
       <c r="E37">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F37">
         <v>184</v>
@@ -1776,13 +1763,13 @@
         <v>467</v>
       </c>
       <c r="H37">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I37">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J37">
-        <v>177.9614</v>
+        <v>178.39340000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1793,28 +1780,28 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>11.700200000000001</v>
+        <v>11.8132</v>
       </c>
       <c r="D38">
-        <v>65.306100000000001</v>
+        <v>65.816299999999998</v>
       </c>
       <c r="E38">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F38">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G38">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I38">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J38">
-        <v>94.515500000000003</v>
+        <v>94.322299999999998</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1828,7 +1815,7 @@
         <v>75.961500000000001</v>
       </c>
       <c r="D39">
-        <v>33.7607</v>
+        <v>33.9056</v>
       </c>
       <c r="E39">
         <v>104</v>
@@ -1837,16 +1824,16 @@
         <v>79</v>
       </c>
       <c r="G39">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H39">
         <v>25</v>
       </c>
       <c r="I39">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J39">
-        <v>173.07689999999999</v>
+        <v>172.11539999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1857,28 +1844,28 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>9.2553000000000001</v>
+        <v>9.1488999999999994</v>
       </c>
       <c r="D40">
-        <v>69.047600000000003</v>
+        <v>68.8</v>
       </c>
       <c r="E40">
         <v>940</v>
       </c>
       <c r="F40">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40">
         <v>39</v>
       </c>
       <c r="H40">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="I40">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J40">
-        <v>94.893600000000006</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1889,28 +1876,28 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>12.1693</v>
+        <v>12.6866</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>30.493300000000001</v>
       </c>
       <c r="E41">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="F41">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G41">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H41">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="I41">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="J41">
-        <v>116.2257</v>
+        <v>116.2313</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,28 +1908,28 @@
         <v>38</v>
       </c>
       <c r="C42">
-        <v>15.7742</v>
+        <v>15.9864</v>
       </c>
       <c r="D42">
-        <v>67.375900000000001</v>
+        <v>66.7851</v>
       </c>
       <c r="E42">
-        <v>2409</v>
+        <v>2352</v>
       </c>
       <c r="F42">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G42">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H42">
-        <v>2029</v>
+        <v>1976</v>
       </c>
       <c r="I42">
-        <v>2213</v>
+        <v>2163</v>
       </c>
       <c r="J42">
-        <v>91.863799999999998</v>
+        <v>91.964299999999994</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1953,13 +1940,13 @@
         <v>19</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>20.2532</v>
       </c>
       <c r="D43">
         <v>2.2599</v>
       </c>
       <c r="E43">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F43">
         <v>16</v>
@@ -1968,13 +1955,13 @@
         <v>692</v>
       </c>
       <c r="H43">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I43">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J43">
-        <v>945</v>
+        <v>955.69619999999998</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1988,7 +1975,7 @@
         <v>14.2857</v>
       </c>
       <c r="D44">
-        <v>0.12803999999999999</v>
+        <v>0.12755</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -1997,16 +1984,16 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="H44">
         <v>6</v>
       </c>
       <c r="I44">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="J44">
-        <v>11228.571400000001</v>
+        <v>11271.428599999999</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2017,13 +2004,13 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>95.862099999999998</v>
+        <v>95.972399999999993</v>
       </c>
       <c r="D45">
         <v>100</v>
       </c>
       <c r="E45">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="F45">
         <v>2502</v>
@@ -2032,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I45">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J45">
-        <v>4.1379000000000001</v>
+        <v>4.0275999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2081,28 +2068,28 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>0.26578000000000002</v>
+        <v>0.3367</v>
       </c>
       <c r="D47">
-        <v>66.666700000000006</v>
+        <v>71.428600000000003</v>
       </c>
       <c r="E47">
-        <v>1505</v>
+        <v>1485</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="I47">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="J47">
-        <v>99.867099999999994</v>
+        <v>99.798000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2145,13 +2132,13 @@
         <v>44</v>
       </c>
       <c r="C49">
-        <v>14.4351</v>
+        <v>14.618600000000001</v>
       </c>
       <c r="D49">
         <v>58.474600000000002</v>
       </c>
       <c r="E49">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F49">
         <v>69</v>
@@ -2160,13 +2147,13 @@
         <v>49</v>
       </c>
       <c r="H49">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I49">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="J49">
-        <v>95.815899999999999</v>
+        <v>95.762699999999995</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,28 +2164,28 @@
         <v>14</v>
       </c>
       <c r="C50">
-        <v>40.5914</v>
+        <v>41.192399999999999</v>
       </c>
       <c r="D50">
-        <v>10.641299999999999</v>
+        <v>10.7042</v>
       </c>
       <c r="E50">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F50">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G50">
         <v>1268</v>
       </c>
       <c r="H50">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I50">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="J50">
-        <v>400.2688</v>
+        <v>402.43900000000002</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2209,28 +2196,28 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>10.270899999999999</v>
+        <v>10.438000000000001</v>
       </c>
       <c r="D51">
-        <v>64.961600000000004</v>
+        <v>65.051000000000002</v>
       </c>
       <c r="E51">
-        <v>2473</v>
+        <v>2443</v>
       </c>
       <c r="F51">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G51">
         <v>137</v>
       </c>
       <c r="H51">
-        <v>2219</v>
+        <v>2188</v>
       </c>
       <c r="I51">
-        <v>2356</v>
+        <v>2325</v>
       </c>
       <c r="J51">
-        <v>95.268900000000002</v>
+        <v>95.169899999999998</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2241,13 +2228,13 @@
         <v>14</v>
       </c>
       <c r="C52">
-        <v>11.284000000000001</v>
+        <v>11.3725</v>
       </c>
       <c r="D52">
         <v>10.642200000000001</v>
       </c>
       <c r="E52">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F52">
         <v>58</v>
@@ -2256,13 +2243,13 @@
         <v>487</v>
       </c>
       <c r="H52">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I52">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="J52">
-        <v>183.46299999999999</v>
+        <v>184.11760000000001</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2273,28 +2260,28 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>50.182200000000002</v>
       </c>
       <c r="D53">
         <v>100</v>
       </c>
       <c r="E53">
-        <v>2770</v>
+        <v>2744</v>
       </c>
       <c r="F53">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1385</v>
+        <v>1367</v>
       </c>
       <c r="I53">
-        <v>1385</v>
+        <v>1367</v>
       </c>
       <c r="J53">
-        <v>50</v>
+        <v>49.817799999999998</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2337,13 +2324,13 @@
         <v>38</v>
       </c>
       <c r="C55">
-        <v>7.3945999999999996</v>
+        <v>7.4489000000000001</v>
       </c>
       <c r="D55">
         <v>92.344499999999996</v>
       </c>
       <c r="E55">
-        <v>2610</v>
+        <v>2591</v>
       </c>
       <c r="F55">
         <v>193</v>
@@ -2352,13 +2339,13 @@
         <v>16</v>
       </c>
       <c r="H55">
-        <v>2417</v>
+        <v>2398</v>
       </c>
       <c r="I55">
-        <v>2433</v>
+        <v>2414</v>
       </c>
       <c r="J55">
-        <v>93.218400000000003</v>
+        <v>93.168700000000001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2433,28 +2420,28 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>86.857299999999995</v>
+        <v>87.263499999999993</v>
       </c>
       <c r="D58">
         <v>100</v>
       </c>
       <c r="E58">
-        <v>2762</v>
+        <v>2748</v>
       </c>
       <c r="F58">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I58">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="J58">
-        <v>13.1427</v>
+        <v>12.736499999999999</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2465,7 +2452,7 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>0.44657000000000002</v>
+        <v>0.41466999999999998</v>
       </c>
       <c r="D59">
         <v>100</v>
@@ -2474,19 +2461,19 @@
         <v>3135</v>
       </c>
       <c r="F59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="I59">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J59">
-        <v>99.553399999999996</v>
+        <v>99.585300000000004</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2561,28 +2548,28 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>18.627500000000001</v>
+        <v>18.542400000000001</v>
       </c>
       <c r="D62">
-        <v>97.555000000000007</v>
+        <v>98.288499999999999</v>
       </c>
       <c r="E62">
-        <v>2142</v>
+        <v>2168</v>
       </c>
       <c r="F62">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H62">
-        <v>1743</v>
+        <v>1766</v>
       </c>
       <c r="I62">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="J62">
-        <v>81.839399999999998</v>
+        <v>81.7804</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2625,28 +2612,28 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>29.2683</v>
+        <v>22.7273</v>
       </c>
       <c r="D64">
-        <v>3.9956</v>
+        <v>2.2198000000000002</v>
       </c>
       <c r="E64">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F64">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G64">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="H64">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I64">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J64">
-        <v>773.9837</v>
+        <v>1078.4091000000001</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2657,28 +2644,28 @@
         <v>11</v>
       </c>
       <c r="C65">
-        <v>0.43651000000000001</v>
+        <v>0.47661999999999999</v>
       </c>
       <c r="D65">
-        <v>68.75</v>
+        <v>100</v>
       </c>
       <c r="E65">
-        <v>2520</v>
+        <v>3357</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>2509</v>
+        <v>3341</v>
       </c>
       <c r="I65">
-        <v>2514</v>
+        <v>3341</v>
       </c>
       <c r="J65">
-        <v>99.761899999999997</v>
+        <v>99.523399999999995</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2715,34 +2702,34 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C67">
-        <v>3.6909000000000001</v>
+        <v>2.9586000000000001</v>
       </c>
       <c r="D67">
-        <v>31.068000000000001</v>
+        <v>45.454500000000003</v>
       </c>
       <c r="E67">
-        <v>867</v>
+        <v>338</v>
       </c>
       <c r="F67">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G67">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="H67">
-        <v>835</v>
+        <v>328</v>
       </c>
       <c r="I67">
-        <v>906</v>
+        <v>340</v>
       </c>
       <c r="J67">
-        <v>104.4983</v>
+        <v>100.5917</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2750,31 +2737,31 @@
         <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C68">
-        <v>2.9411999999999998</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>45.454500000000003</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="H68">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="J68">
-        <v>100.5882</v>
+        <v>10566.6667</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2782,63 +2769,63 @@
         <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>84.145700000000005</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>92.303200000000004</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1867</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1571</v>
       </c>
       <c r="G69">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="I69">
-        <v>317</v>
+        <v>427</v>
       </c>
       <c r="J69">
-        <v>10566.6667</v>
+        <v>22.870899999999999</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>84.0107</v>
+        <v>6.0789999999999997</v>
       </c>
       <c r="D70">
-        <v>92.520600000000002</v>
+        <v>3.5148999999999999</v>
       </c>
       <c r="E70">
-        <v>1870</v>
+        <v>329</v>
       </c>
       <c r="F70">
-        <v>1571</v>
+        <v>20</v>
       </c>
       <c r="G70">
-        <v>127</v>
+        <v>549</v>
       </c>
       <c r="H70">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="I70">
-        <v>426</v>
+        <v>858</v>
       </c>
       <c r="J70">
-        <v>22.7807</v>
+        <v>260.7903</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2846,31 +2833,31 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C71">
-        <v>4.3573000000000004</v>
+        <v>17.7026</v>
       </c>
       <c r="D71">
-        <v>3.2949000000000002</v>
+        <v>62.9191</v>
       </c>
       <c r="E71">
-        <v>459</v>
+        <v>1802</v>
       </c>
       <c r="F71">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="G71">
-        <v>587</v>
+        <v>188</v>
       </c>
       <c r="H71">
-        <v>439</v>
+        <v>1483</v>
       </c>
       <c r="I71">
-        <v>1026</v>
+        <v>1671</v>
       </c>
       <c r="J71">
-        <v>223.52940000000001</v>
+        <v>92.7303</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2878,63 +2865,63 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C72">
-        <v>17.757999999999999</v>
+        <v>34.782600000000002</v>
       </c>
       <c r="D72">
-        <v>62.992100000000001</v>
+        <v>1.5564</v>
       </c>
       <c r="E72">
-        <v>1802</v>
+        <v>23</v>
       </c>
       <c r="F72">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>188</v>
+        <v>506</v>
       </c>
       <c r="H72">
-        <v>1482</v>
+        <v>15</v>
       </c>
       <c r="I72">
-        <v>1670</v>
+        <v>521</v>
       </c>
       <c r="J72">
-        <v>92.674800000000005</v>
+        <v>2265.2174</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>30.769200000000001</v>
+        <v>33.3003</v>
       </c>
       <c r="D73">
-        <v>1.581</v>
+        <v>99.851600000000005</v>
       </c>
       <c r="E73">
-        <v>26</v>
+        <v>2021</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>673</v>
       </c>
       <c r="G73">
-        <v>498</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>18</v>
+        <v>1348</v>
       </c>
       <c r="I73">
-        <v>516</v>
+        <v>1349</v>
       </c>
       <c r="J73">
-        <v>1984.6153999999999</v>
+        <v>66.749099999999999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2942,63 +2929,63 @@
         <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>33.250999999999998</v>
+        <v>3.7037</v>
       </c>
       <c r="D74">
-        <v>99.851600000000005</v>
+        <v>0.11751</v>
       </c>
       <c r="E74">
-        <v>2024</v>
+        <v>27</v>
       </c>
       <c r="F74">
-        <v>673</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>850</v>
       </c>
       <c r="H74">
-        <v>1351</v>
+        <v>26</v>
       </c>
       <c r="I74">
-        <v>1352</v>
+        <v>876</v>
       </c>
       <c r="J74">
-        <v>66.798400000000001</v>
+        <v>3244.4443999999999</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C75">
-        <v>3.5714000000000001</v>
+        <v>12.4735</v>
       </c>
       <c r="D75">
-        <v>0.11751</v>
+        <v>96.3934</v>
       </c>
       <c r="E75">
-        <v>28</v>
+        <v>2357</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="G75">
-        <v>850</v>
+        <v>11</v>
       </c>
       <c r="H75">
-        <v>27</v>
+        <v>2063</v>
       </c>
       <c r="I75">
-        <v>877</v>
+        <v>2074</v>
       </c>
       <c r="J75">
-        <v>3132.1428999999998</v>
+        <v>87.993200000000002</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3006,31 +2993,31 @@
         <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C76">
-        <v>12.7111</v>
+        <v>33.333300000000001</v>
       </c>
       <c r="D76">
-        <v>95.859899999999996</v>
+        <v>0.31596000000000002</v>
       </c>
       <c r="E76">
-        <v>2368</v>
+        <v>6</v>
       </c>
       <c r="F76">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>13</v>
+        <v>631</v>
       </c>
       <c r="H76">
-        <v>2067</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>2080</v>
+        <v>635</v>
       </c>
       <c r="J76">
-        <v>87.837800000000001</v>
+        <v>10583.3333</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3038,63 +3025,63 @@
         <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C77">
-        <v>33.333300000000001</v>
+        <v>46.875</v>
       </c>
       <c r="D77">
-        <v>0.31596000000000002</v>
+        <v>3.5971000000000002</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G77">
-        <v>631</v>
+        <v>804</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I77">
-        <v>635</v>
+        <v>838</v>
       </c>
       <c r="J77">
-        <v>10583.3333</v>
+        <v>1309.375</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>43.076900000000002</v>
+        <v>68.924599999999998</v>
       </c>
       <c r="D78">
-        <v>3.3980999999999999</v>
+        <v>91.666700000000006</v>
       </c>
       <c r="E78">
-        <v>65</v>
+        <v>1181</v>
       </c>
       <c r="F78">
-        <v>28</v>
+        <v>814</v>
       </c>
       <c r="G78">
-        <v>796</v>
+        <v>74</v>
       </c>
       <c r="H78">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="I78">
-        <v>833</v>
+        <v>441</v>
       </c>
       <c r="J78">
-        <v>1281.5385000000001</v>
+        <v>37.341200000000001</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3102,31 +3089,31 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C79">
-        <v>68.518500000000003</v>
+        <v>24.3935</v>
       </c>
       <c r="D79">
-        <v>91.563599999999994</v>
+        <v>59.539499999999997</v>
       </c>
       <c r="E79">
-        <v>1188</v>
+        <v>742</v>
       </c>
       <c r="F79">
-        <v>814</v>
+        <v>181</v>
       </c>
       <c r="G79">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="H79">
-        <v>374</v>
+        <v>561</v>
       </c>
       <c r="I79">
-        <v>449</v>
+        <v>684</v>
       </c>
       <c r="J79">
-        <v>37.794600000000003</v>
+        <v>92.183300000000003</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3134,31 +3121,31 @@
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C80">
-        <v>24.262699999999999</v>
+        <v>22.340399999999999</v>
       </c>
       <c r="D80">
-        <v>59.344299999999997</v>
+        <v>7.5540000000000003</v>
       </c>
       <c r="E80">
-        <v>746</v>
+        <v>188</v>
       </c>
       <c r="F80">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="G80">
-        <v>124</v>
+        <v>514</v>
       </c>
       <c r="H80">
-        <v>565</v>
+        <v>146</v>
       </c>
       <c r="I80">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="J80">
-        <v>92.359200000000001</v>
+        <v>351.06380000000001</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3166,63 +3153,63 @@
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>22.872299999999999</v>
+        <v>42.204300000000003</v>
       </c>
       <c r="D81">
-        <v>7.6786000000000003</v>
+        <v>42.547400000000003</v>
       </c>
       <c r="E81">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="F81">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="G81">
-        <v>517</v>
+        <v>212</v>
       </c>
       <c r="H81">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="I81">
-        <v>662</v>
+        <v>427</v>
       </c>
       <c r="J81">
-        <v>352.1277</v>
+        <v>114.78489999999999</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C82">
-        <v>40.4255</v>
+        <v>43.236499999999999</v>
       </c>
       <c r="D82">
-        <v>41.8733</v>
+        <v>96.857500000000002</v>
       </c>
       <c r="E82">
-        <v>376</v>
+        <v>1996</v>
       </c>
       <c r="F82">
-        <v>152</v>
+        <v>863</v>
       </c>
       <c r="G82">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="H82">
-        <v>224</v>
+        <v>1133</v>
       </c>
       <c r="I82">
-        <v>435</v>
+        <v>1161</v>
       </c>
       <c r="J82">
-        <v>115.6915</v>
+        <v>58.1663</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3230,31 +3217,31 @@
         <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>43.0854</v>
+        <v>47.513800000000003</v>
       </c>
       <c r="D83">
-        <v>96.857500000000002</v>
+        <v>9.6521000000000008</v>
       </c>
       <c r="E83">
-        <v>2003</v>
+        <v>181</v>
       </c>
       <c r="F83">
-        <v>863</v>
+        <v>86</v>
       </c>
       <c r="G83">
-        <v>28</v>
+        <v>805</v>
       </c>
       <c r="H83">
-        <v>1140</v>
+        <v>95</v>
       </c>
       <c r="I83">
-        <v>1168</v>
+        <v>900</v>
       </c>
       <c r="J83">
-        <v>58.3125</v>
+        <v>497.23759999999999</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3262,63 +3249,63 @@
         <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C84">
-        <v>46.994500000000002</v>
+        <v>15.1869</v>
       </c>
       <c r="D84">
-        <v>9.6521000000000008</v>
+        <v>32.6633</v>
       </c>
       <c r="E84">
-        <v>183</v>
+        <v>428</v>
       </c>
       <c r="F84">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G84">
-        <v>805</v>
+        <v>134</v>
       </c>
       <c r="H84">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="I84">
-        <v>902</v>
+        <v>497</v>
       </c>
       <c r="J84">
-        <v>492.89620000000002</v>
+        <v>116.1215</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>15.1515</v>
+        <v>10.428000000000001</v>
       </c>
       <c r="D85">
-        <v>32.5</v>
+        <v>98.857100000000003</v>
       </c>
       <c r="E85">
-        <v>429</v>
+        <v>1659</v>
       </c>
       <c r="F85">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="G85">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>364</v>
+        <v>1486</v>
       </c>
       <c r="I85">
-        <v>499</v>
+        <v>1488</v>
       </c>
       <c r="J85">
-        <v>116.31699999999999</v>
+        <v>89.692599999999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3326,63 +3313,63 @@
         <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>10.9459</v>
+        <v>58.883200000000002</v>
       </c>
       <c r="D86">
-        <v>98.395700000000005</v>
+        <v>42.413200000000003</v>
       </c>
       <c r="E86">
-        <v>1681</v>
+        <v>394</v>
       </c>
       <c r="F86">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="H86">
-        <v>1497</v>
+        <v>162</v>
       </c>
       <c r="I86">
-        <v>1500</v>
+        <v>477</v>
       </c>
       <c r="J86">
-        <v>89.232600000000005</v>
+        <v>121.066</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C87">
-        <v>57.211500000000001</v>
+        <v>61.148400000000002</v>
       </c>
       <c r="D87">
-        <v>43.510100000000001</v>
+        <v>93.714299999999994</v>
       </c>
       <c r="E87">
-        <v>416</v>
+        <v>1341</v>
       </c>
       <c r="F87">
-        <v>238</v>
+        <v>820</v>
       </c>
       <c r="G87">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="H87">
-        <v>178</v>
+        <v>521</v>
       </c>
       <c r="I87">
-        <v>487</v>
+        <v>576</v>
       </c>
       <c r="J87">
-        <v>117.0673</v>
+        <v>42.953000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3390,63 +3377,63 @@
         <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C88">
-        <v>61.3264</v>
+        <v>49.070999999999998</v>
       </c>
       <c r="D88">
-        <v>93.735799999999998</v>
+        <v>63.150500000000001</v>
       </c>
       <c r="E88">
-        <v>1342</v>
+        <v>915</v>
       </c>
       <c r="F88">
-        <v>823</v>
+        <v>449</v>
       </c>
       <c r="G88">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="H88">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="I88">
-        <v>574</v>
+        <v>728</v>
       </c>
       <c r="J88">
-        <v>42.771999999999998</v>
+        <v>79.562799999999996</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C89">
-        <v>48.963999999999999</v>
+        <v>90.790599999999998</v>
       </c>
       <c r="D89">
-        <v>63.150500000000001</v>
+        <v>100</v>
       </c>
       <c r="E89">
-        <v>917</v>
+        <v>1151</v>
       </c>
       <c r="F89">
-        <v>449</v>
+        <v>1045</v>
       </c>
       <c r="G89">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>468</v>
+        <v>106</v>
       </c>
       <c r="I89">
-        <v>730</v>
+        <v>106</v>
       </c>
       <c r="J89">
-        <v>79.607399999999998</v>
+        <v>9.2094000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3454,95 +3441,95 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C90">
-        <v>91.292900000000003</v>
+        <v>0.95238</v>
       </c>
       <c r="D90">
-        <v>66.220100000000002</v>
+        <v>19.047599999999999</v>
       </c>
       <c r="E90">
-        <v>758</v>
+        <v>420</v>
       </c>
       <c r="F90">
-        <v>692</v>
+        <v>4</v>
       </c>
       <c r="G90">
-        <v>353</v>
+        <v>17</v>
       </c>
       <c r="H90">
-        <v>66</v>
+        <v>416</v>
       </c>
       <c r="I90">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="J90">
-        <v>55.277000000000001</v>
+        <v>103.09520000000001</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C91">
-        <v>1.1043000000000001</v>
+        <v>1.1235999999999999</v>
       </c>
       <c r="D91">
-        <v>42.857100000000003</v>
+        <v>100</v>
       </c>
       <c r="E91">
-        <v>815</v>
+        <v>1780</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G91">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>806</v>
+        <v>1760</v>
       </c>
       <c r="I91">
-        <v>818</v>
+        <v>1760</v>
       </c>
       <c r="J91">
-        <v>100.3681</v>
+        <v>98.876400000000004</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C92">
-        <v>1.1019000000000001</v>
+        <v>5.8864999999999998</v>
       </c>
       <c r="D92">
         <v>100</v>
       </c>
       <c r="E92">
-        <v>1815</v>
+        <v>2871</v>
       </c>
       <c r="F92">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1795</v>
+        <v>2702</v>
       </c>
       <c r="I92">
-        <v>1795</v>
+        <v>2702</v>
       </c>
       <c r="J92">
-        <v>98.898099999999999</v>
+        <v>94.113500000000002</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3550,31 +3537,31 @@
         <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C93">
-        <v>5.8823999999999996</v>
+        <v>27.777799999999999</v>
       </c>
       <c r="D93">
-        <v>100</v>
+        <v>0.62343999999999999</v>
       </c>
       <c r="E93">
-        <v>2873</v>
+        <v>18</v>
       </c>
       <c r="F93">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="H93">
-        <v>2704</v>
+        <v>13</v>
       </c>
       <c r="I93">
-        <v>2704</v>
+        <v>810</v>
       </c>
       <c r="J93">
-        <v>94.117599999999996</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3582,63 +3569,63 @@
         <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>27.777799999999999</v>
+        <v>52.631599999999999</v>
       </c>
       <c r="D94">
-        <v>0.62343999999999999</v>
+        <v>14.005599999999999</v>
       </c>
       <c r="E94">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G94">
-        <v>797</v>
+        <v>614</v>
       </c>
       <c r="H94">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="I94">
-        <v>810</v>
+        <v>704</v>
       </c>
       <c r="J94">
-        <v>4500</v>
+        <v>370.52629999999999</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C95">
-        <v>52.631599999999999</v>
+        <v>95.708500000000001</v>
       </c>
       <c r="D95">
-        <v>14.005599999999999</v>
+        <v>99.884200000000007</v>
       </c>
       <c r="E95">
-        <v>190</v>
+        <v>2703</v>
       </c>
       <c r="F95">
-        <v>100</v>
+        <v>2587</v>
       </c>
       <c r="G95">
-        <v>614</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I95">
-        <v>704</v>
+        <v>119</v>
       </c>
       <c r="J95">
-        <v>370.52629999999999</v>
+        <v>4.4024999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3646,104 +3633,3074 @@
         <v>64</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C96">
-        <v>95.426000000000002</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>99.884200000000007</v>
+        <v>100</v>
       </c>
       <c r="E96">
-        <v>2711</v>
+        <v>50</v>
       </c>
       <c r="F96">
-        <v>2587</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="I96">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="J96">
-        <v>4.6845999999999997</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>69.115700000000004</v>
       </c>
       <c r="D97">
         <v>100</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>2273</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1571</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>48</v>
+        <v>702</v>
       </c>
       <c r="I97">
-        <v>48</v>
+        <v>702</v>
       </c>
       <c r="J97">
-        <v>96</v>
+        <v>30.8843</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>96.081599999999995</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
+      </c>
+      <c r="E98">
+        <v>1863</v>
+      </c>
+      <c r="F98">
+        <v>1790</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>73</v>
+      </c>
+      <c r="I98">
+        <v>73</v>
+      </c>
+      <c r="J98">
+        <v>3.9184000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>64.7059</v>
+      </c>
+      <c r="D99">
+        <v>46.808500000000002</v>
+      </c>
+      <c r="E99">
+        <v>102</v>
+      </c>
+      <c r="F99">
+        <v>66</v>
+      </c>
+      <c r="G99">
+        <v>75</v>
+      </c>
+      <c r="H99">
+        <v>36</v>
+      </c>
+      <c r="I99">
+        <v>111</v>
+      </c>
+      <c r="J99">
+        <v>108.8235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>54.676299999999998</v>
+      </c>
+      <c r="D100">
+        <v>95.878900000000002</v>
+      </c>
+      <c r="E100">
+        <v>2085</v>
+      </c>
+      <c r="F100">
+        <v>1140</v>
+      </c>
+      <c r="G100">
+        <v>49</v>
+      </c>
+      <c r="H100">
+        <v>945</v>
+      </c>
+      <c r="I100">
+        <v>994</v>
+      </c>
+      <c r="J100">
+        <v>47.673900000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>73.512500000000003</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+      <c r="E101">
+        <v>2084</v>
+      </c>
+      <c r="F101">
+        <v>1532</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>552</v>
+      </c>
+      <c r="I101">
+        <v>552</v>
+      </c>
+      <c r="J101">
+        <v>26.487500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>17.993099999999998</v>
+      </c>
+      <c r="D102">
+        <v>36.1111</v>
+      </c>
+      <c r="E102">
+        <v>289</v>
+      </c>
+      <c r="F102">
+        <v>52</v>
+      </c>
+      <c r="G102">
+        <v>92</v>
+      </c>
+      <c r="H102">
+        <v>237</v>
+      </c>
+      <c r="I102">
+        <v>329</v>
+      </c>
+      <c r="J102">
+        <v>113.8408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>33.762900000000002</v>
+      </c>
+      <c r="D103">
+        <v>81.875</v>
+      </c>
+      <c r="E103">
+        <v>1940</v>
+      </c>
+      <c r="F103">
+        <v>655</v>
+      </c>
+      <c r="G103">
+        <v>145</v>
+      </c>
+      <c r="H103">
+        <v>1285</v>
+      </c>
+      <c r="I103">
+        <v>1430</v>
+      </c>
+      <c r="J103">
+        <v>73.711299999999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>11.858499999999999</v>
+      </c>
+      <c r="D104">
+        <v>99.673199999999994</v>
+      </c>
+      <c r="E104">
+        <v>2572</v>
+      </c>
+      <c r="F104">
+        <v>305</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>2267</v>
+      </c>
+      <c r="I104">
+        <v>2268</v>
+      </c>
+      <c r="J104">
+        <v>88.180400000000006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>49.966299999999997</v>
+      </c>
+      <c r="D105">
+        <v>99.865200000000002</v>
+      </c>
+      <c r="E105">
+        <v>1483</v>
+      </c>
+      <c r="F105">
+        <v>741</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>742</v>
+      </c>
+      <c r="I105">
+        <v>743</v>
+      </c>
+      <c r="J105">
+        <v>50.101100000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
+        <v>8</v>
+      </c>
+      <c r="J106">
+        <v>266.66669999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107">
+        <v>54.898299999999999</v>
+      </c>
+      <c r="D107">
+        <v>48.292700000000004</v>
+      </c>
+      <c r="E107">
+        <v>541</v>
+      </c>
+      <c r="F107">
+        <v>297</v>
+      </c>
+      <c r="G107">
+        <v>318</v>
+      </c>
+      <c r="H107">
+        <v>244</v>
+      </c>
+      <c r="I107">
+        <v>562</v>
+      </c>
+      <c r="J107">
+        <v>103.8817</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>95.5077</v>
+      </c>
+      <c r="D108">
+        <v>99.804400000000001</v>
+      </c>
+      <c r="E108">
+        <v>2137</v>
+      </c>
+      <c r="F108">
+        <v>2041</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
+      <c r="H108">
+        <v>96</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
+      </c>
+      <c r="J108">
+        <v>4.6795</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>16.524699999999999</v>
+      </c>
+      <c r="D109">
+        <v>99.657499999999999</v>
+      </c>
+      <c r="E109">
+        <v>1761</v>
+      </c>
+      <c r="F109">
+        <v>291</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1470</v>
+      </c>
+      <c r="I109">
+        <v>1471</v>
+      </c>
+      <c r="J109">
+        <v>83.5321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>3.4754999999999998</v>
+      </c>
+      <c r="D110">
+        <v>100</v>
+      </c>
+      <c r="E110">
+        <v>2532</v>
+      </c>
+      <c r="F110">
+        <v>88</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>2444</v>
+      </c>
+      <c r="I110">
+        <v>2444</v>
+      </c>
+      <c r="J110">
+        <v>96.524500000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>1.1776</v>
+      </c>
+      <c r="D111">
+        <v>96.153800000000004</v>
+      </c>
+      <c r="E111">
+        <v>2123</v>
+      </c>
+      <c r="F111">
+        <v>25</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>2098</v>
+      </c>
+      <c r="I111">
+        <v>2099</v>
+      </c>
+      <c r="J111">
+        <v>98.869500000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>25.758199999999999</v>
+      </c>
+      <c r="D112">
+        <v>100</v>
+      </c>
+      <c r="E112">
+        <v>2539</v>
+      </c>
+      <c r="F112">
+        <v>654</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1885</v>
+      </c>
+      <c r="I112">
+        <v>1885</v>
+      </c>
+      <c r="J112">
+        <v>74.241799999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>73.728300000000004</v>
+      </c>
+      <c r="D113">
+        <v>99.848600000000005</v>
+      </c>
+      <c r="E113">
+        <v>1789</v>
+      </c>
+      <c r="F113">
+        <v>1319</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>470</v>
+      </c>
+      <c r="I113">
+        <v>472</v>
+      </c>
+      <c r="J113">
+        <v>26.383500000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>15.865399999999999</v>
+      </c>
+      <c r="D114">
+        <v>100</v>
+      </c>
+      <c r="E114">
+        <v>1872</v>
+      </c>
+      <c r="F114">
+        <v>297</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1575</v>
+      </c>
+      <c r="I114">
+        <v>1575</v>
+      </c>
+      <c r="J114">
+        <v>84.134600000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>57.142899999999997</v>
+      </c>
+      <c r="D115">
+        <v>0.27951999999999999</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <v>1427</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>1430</v>
+      </c>
+      <c r="J115">
+        <v>20428.571400000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>84.894999999999996</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116">
+        <v>1953</v>
+      </c>
+      <c r="F116">
+        <v>1658</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>295</v>
+      </c>
+      <c r="I116">
+        <v>295</v>
+      </c>
+      <c r="J116">
+        <v>15.105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <v>56.799300000000002</v>
+      </c>
+      <c r="D117">
+        <v>100</v>
+      </c>
+      <c r="E117">
+        <v>2412</v>
+      </c>
+      <c r="F117">
+        <v>1370</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1042</v>
+      </c>
+      <c r="I117">
+        <v>1042</v>
+      </c>
+      <c r="J117">
+        <v>43.200699999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>0.78176000000000001</v>
+      </c>
+      <c r="D118">
+        <v>100</v>
+      </c>
+      <c r="E118">
+        <v>1535</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1523</v>
+      </c>
+      <c r="I118">
+        <v>1523</v>
+      </c>
+      <c r="J118">
+        <v>99.218199999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119">
+        <v>35.136299999999999</v>
+      </c>
+      <c r="D119">
+        <v>100</v>
+      </c>
+      <c r="E119">
+        <v>2274</v>
+      </c>
+      <c r="F119">
+        <v>799</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>1475</v>
+      </c>
+      <c r="I119">
+        <v>1475</v>
+      </c>
+      <c r="J119">
+        <v>64.863699999999994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>63.7517</v>
+      </c>
+      <c r="D120">
+        <v>92.898799999999994</v>
+      </c>
+      <c r="E120">
+        <v>1498</v>
+      </c>
+      <c r="F120">
+        <v>955</v>
+      </c>
+      <c r="G120">
+        <v>73</v>
+      </c>
+      <c r="H120">
+        <v>543</v>
+      </c>
+      <c r="I120">
+        <v>616</v>
+      </c>
+      <c r="J120">
+        <v>41.121499999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>42.535800000000002</v>
+      </c>
+      <c r="D121">
+        <v>50.6083</v>
+      </c>
+      <c r="E121">
+        <v>489</v>
+      </c>
+      <c r="F121">
+        <v>208</v>
+      </c>
+      <c r="G121">
+        <v>203</v>
+      </c>
+      <c r="H121">
+        <v>281</v>
+      </c>
+      <c r="I121">
+        <v>484</v>
+      </c>
+      <c r="J121">
+        <v>98.977500000000006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>21.846499999999999</v>
+      </c>
+      <c r="D122">
+        <v>100</v>
+      </c>
+      <c r="E122">
+        <v>1863</v>
+      </c>
+      <c r="F122">
+        <v>407</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1456</v>
+      </c>
+      <c r="I122">
+        <v>1456</v>
+      </c>
+      <c r="J122">
+        <v>78.153499999999994</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <v>99.272999999999996</v>
+      </c>
+      <c r="D123">
+        <v>100</v>
+      </c>
+      <c r="E123">
+        <v>2476</v>
+      </c>
+      <c r="F123">
+        <v>2458</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>18</v>
+      </c>
+      <c r="I123">
+        <v>18</v>
+      </c>
+      <c r="J123">
+        <v>0.72697999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124">
+        <v>6.2582000000000004</v>
+      </c>
+      <c r="D124">
+        <v>100</v>
+      </c>
+      <c r="E124">
+        <v>1518</v>
+      </c>
+      <c r="F124">
+        <v>95</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1423</v>
+      </c>
+      <c r="I124">
+        <v>1423</v>
+      </c>
+      <c r="J124">
+        <v>93.741799999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>11.929600000000001</v>
+      </c>
+      <c r="D125">
+        <v>94.329899999999995</v>
+      </c>
+      <c r="E125">
+        <v>1534</v>
+      </c>
+      <c r="F125">
+        <v>183</v>
+      </c>
+      <c r="G125">
+        <v>11</v>
+      </c>
+      <c r="H125">
+        <v>1351</v>
+      </c>
+      <c r="I125">
+        <v>1362</v>
+      </c>
+      <c r="J125">
+        <v>88.787499999999994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>61.176499999999997</v>
+      </c>
+      <c r="D126">
+        <v>8.7394999999999996</v>
+      </c>
+      <c r="E126">
+        <v>85</v>
+      </c>
+      <c r="F126">
+        <v>52</v>
+      </c>
+      <c r="G126">
+        <v>543</v>
+      </c>
+      <c r="H126">
+        <v>33</v>
+      </c>
+      <c r="I126">
+        <v>576</v>
+      </c>
+      <c r="J126">
+        <v>677.64710000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127">
+        <v>27.4678</v>
+      </c>
+      <c r="D127">
+        <v>94.117599999999996</v>
+      </c>
+      <c r="E127">
+        <v>1398</v>
+      </c>
+      <c r="F127">
+        <v>384</v>
+      </c>
+      <c r="G127">
+        <v>24</v>
+      </c>
+      <c r="H127">
+        <v>1014</v>
+      </c>
+      <c r="I127">
+        <v>1038</v>
+      </c>
+      <c r="J127">
+        <v>74.248900000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128">
+        <v>21.739100000000001</v>
+      </c>
+      <c r="D128">
+        <v>1.3441000000000001</v>
+      </c>
+      <c r="E128">
+        <v>23</v>
+      </c>
+      <c r="F128">
+        <v>5</v>
+      </c>
+      <c r="G128">
+        <v>367</v>
+      </c>
+      <c r="H128">
+        <v>18</v>
+      </c>
+      <c r="I128">
+        <v>385</v>
+      </c>
+      <c r="J128">
+        <v>1673.913</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>29.830500000000001</v>
+      </c>
+      <c r="D129">
+        <v>75.536500000000004</v>
+      </c>
+      <c r="E129">
+        <v>1180</v>
+      </c>
+      <c r="F129">
+        <v>352</v>
+      </c>
+      <c r="G129">
+        <v>114</v>
+      </c>
+      <c r="H129">
+        <v>828</v>
+      </c>
+      <c r="I129">
+        <v>942</v>
+      </c>
+      <c r="J129">
+        <v>79.830500000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>4.0639000000000003</v>
+      </c>
+      <c r="D130">
+        <v>15.6425</v>
+      </c>
+      <c r="E130">
+        <v>689</v>
+      </c>
+      <c r="F130">
+        <v>28</v>
+      </c>
+      <c r="G130">
+        <v>151</v>
+      </c>
+      <c r="H130">
+        <v>661</v>
+      </c>
+      <c r="I130">
+        <v>812</v>
+      </c>
+      <c r="J130">
+        <v>117.852</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131">
+        <v>14.27</v>
+      </c>
+      <c r="D131">
+        <v>39.039000000000001</v>
+      </c>
+      <c r="E131">
+        <v>911</v>
+      </c>
+      <c r="F131">
+        <v>130</v>
+      </c>
+      <c r="G131">
+        <v>203</v>
+      </c>
+      <c r="H131">
+        <v>781</v>
+      </c>
+      <c r="I131">
+        <v>984</v>
+      </c>
+      <c r="J131">
+        <v>108.0132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>50.969499999999996</v>
+      </c>
+      <c r="D132">
+        <v>28.264199999999999</v>
+      </c>
+      <c r="E132">
+        <v>361</v>
+      </c>
+      <c r="F132">
+        <v>184</v>
+      </c>
+      <c r="G132">
+        <v>467</v>
+      </c>
+      <c r="H132">
+        <v>177</v>
+      </c>
+      <c r="I132">
+        <v>644</v>
+      </c>
+      <c r="J132">
+        <v>178.39340000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>39</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133">
+        <v>11.8132</v>
+      </c>
+      <c r="D133">
+        <v>65.816299999999998</v>
+      </c>
+      <c r="E133">
+        <v>1092</v>
+      </c>
+      <c r="F133">
+        <v>129</v>
+      </c>
+      <c r="G133">
+        <v>67</v>
+      </c>
+      <c r="H133">
+        <v>963</v>
+      </c>
+      <c r="I133">
+        <v>1030</v>
+      </c>
+      <c r="J133">
+        <v>94.322299999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134">
+        <v>75.961500000000001</v>
+      </c>
+      <c r="D134">
+        <v>33.9056</v>
+      </c>
+      <c r="E134">
+        <v>104</v>
+      </c>
+      <c r="F134">
+        <v>79</v>
+      </c>
+      <c r="G134">
+        <v>154</v>
+      </c>
+      <c r="H134">
+        <v>25</v>
+      </c>
+      <c r="I134">
+        <v>179</v>
+      </c>
+      <c r="J134">
+        <v>172.11539999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135">
+        <v>9.1488999999999994</v>
+      </c>
+      <c r="D135">
+        <v>68.8</v>
+      </c>
+      <c r="E135">
+        <v>940</v>
+      </c>
+      <c r="F135">
+        <v>86</v>
+      </c>
+      <c r="G135">
+        <v>39</v>
+      </c>
+      <c r="H135">
+        <v>854</v>
+      </c>
+      <c r="I135">
+        <v>893</v>
+      </c>
+      <c r="J135">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136">
+        <v>12.6866</v>
+      </c>
+      <c r="D136">
+        <v>30.493300000000001</v>
+      </c>
+      <c r="E136">
+        <v>536</v>
+      </c>
+      <c r="F136">
+        <v>68</v>
+      </c>
+      <c r="G136">
+        <v>155</v>
+      </c>
+      <c r="H136">
+        <v>468</v>
+      </c>
+      <c r="I136">
+        <v>623</v>
+      </c>
+      <c r="J136">
+        <v>116.2313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137">
+        <v>15.9864</v>
+      </c>
+      <c r="D137">
+        <v>66.7851</v>
+      </c>
+      <c r="E137">
+        <v>2352</v>
+      </c>
+      <c r="F137">
+        <v>376</v>
+      </c>
+      <c r="G137">
+        <v>187</v>
+      </c>
+      <c r="H137">
+        <v>1976</v>
+      </c>
+      <c r="I137">
+        <v>2163</v>
+      </c>
+      <c r="J137">
+        <v>91.964299999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138">
+        <v>20.2532</v>
+      </c>
+      <c r="D138">
+        <v>2.2599</v>
+      </c>
+      <c r="E138">
+        <v>79</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138">
+        <v>692</v>
+      </c>
+      <c r="H138">
+        <v>63</v>
+      </c>
+      <c r="I138">
+        <v>755</v>
+      </c>
+      <c r="J138">
+        <v>955.69619999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>41</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>14.2857</v>
+      </c>
+      <c r="D139">
+        <v>0.12755</v>
+      </c>
+      <c r="E139">
+        <v>7</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>783</v>
+      </c>
+      <c r="H139">
+        <v>6</v>
+      </c>
+      <c r="I139">
+        <v>789</v>
+      </c>
+      <c r="J139">
+        <v>11271.428599999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>42</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <v>95.972399999999993</v>
+      </c>
+      <c r="D140">
+        <v>100</v>
+      </c>
+      <c r="E140">
+        <v>2607</v>
+      </c>
+      <c r="F140">
+        <v>2502</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>105</v>
+      </c>
+      <c r="I140">
+        <v>105</v>
+      </c>
+      <c r="J140">
+        <v>4.0275999999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>42</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141">
+        <v>38.775500000000001</v>
+      </c>
+      <c r="D141">
+        <v>39.583300000000001</v>
+      </c>
+      <c r="E141">
+        <v>49</v>
+      </c>
+      <c r="F141">
+        <v>19</v>
+      </c>
+      <c r="G141">
+        <v>29</v>
+      </c>
+      <c r="H141">
+        <v>30</v>
+      </c>
+      <c r="I141">
+        <v>59</v>
+      </c>
+      <c r="J141">
+        <v>120.40819999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>0.3367</v>
+      </c>
+      <c r="D142">
+        <v>71.428600000000003</v>
+      </c>
+      <c r="E142">
+        <v>1485</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
+        <v>1480</v>
+      </c>
+      <c r="I142">
+        <v>1482</v>
+      </c>
+      <c r="J142">
+        <v>99.798000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>492</v>
+      </c>
+      <c r="H143">
+        <v>6</v>
+      </c>
+      <c r="I143">
+        <v>498</v>
+      </c>
+      <c r="J143">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144">
+        <v>14.618600000000001</v>
+      </c>
+      <c r="D144">
+        <v>58.474600000000002</v>
+      </c>
+      <c r="E144">
+        <v>472</v>
+      </c>
+      <c r="F144">
+        <v>69</v>
+      </c>
+      <c r="G144">
+        <v>49</v>
+      </c>
+      <c r="H144">
+        <v>403</v>
+      </c>
+      <c r="I144">
+        <v>452</v>
+      </c>
+      <c r="J144">
+        <v>95.762699999999995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>41.192399999999999</v>
+      </c>
+      <c r="D145">
+        <v>10.7042</v>
+      </c>
+      <c r="E145">
+        <v>369</v>
+      </c>
+      <c r="F145">
+        <v>152</v>
+      </c>
+      <c r="G145">
+        <v>1268</v>
+      </c>
+      <c r="H145">
+        <v>217</v>
+      </c>
+      <c r="I145">
+        <v>1485</v>
+      </c>
+      <c r="J145">
+        <v>402.43900000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>10.438000000000001</v>
+      </c>
+      <c r="D146">
+        <v>65.051000000000002</v>
+      </c>
+      <c r="E146">
+        <v>2443</v>
+      </c>
+      <c r="F146">
+        <v>255</v>
+      </c>
+      <c r="G146">
+        <v>137</v>
+      </c>
+      <c r="H146">
+        <v>2188</v>
+      </c>
+      <c r="I146">
+        <v>2325</v>
+      </c>
+      <c r="J146">
+        <v>95.169899999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>11.3725</v>
+      </c>
+      <c r="D147">
+        <v>10.642200000000001</v>
+      </c>
+      <c r="E147">
+        <v>510</v>
+      </c>
+      <c r="F147">
+        <v>58</v>
+      </c>
+      <c r="G147">
+        <v>487</v>
+      </c>
+      <c r="H147">
+        <v>452</v>
+      </c>
+      <c r="I147">
+        <v>939</v>
+      </c>
+      <c r="J147">
+        <v>184.11760000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <v>50.182200000000002</v>
+      </c>
+      <c r="D148">
+        <v>100</v>
+      </c>
+      <c r="E148">
+        <v>2744</v>
+      </c>
+      <c r="F148">
+        <v>1377</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1367</v>
+      </c>
+      <c r="I148">
+        <v>1367</v>
+      </c>
+      <c r="J148">
+        <v>49.817799999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149">
+        <v>1.9157</v>
+      </c>
+      <c r="D149">
+        <v>62.5</v>
+      </c>
+      <c r="E149">
+        <v>261</v>
+      </c>
+      <c r="F149">
+        <v>5</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>256</v>
+      </c>
+      <c r="I149">
+        <v>259</v>
+      </c>
+      <c r="J149">
+        <v>99.233699999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150">
+        <v>7.4489000000000001</v>
+      </c>
+      <c r="D150">
+        <v>92.344499999999996</v>
+      </c>
+      <c r="E150">
+        <v>2591</v>
+      </c>
+      <c r="F150">
+        <v>193</v>
+      </c>
+      <c r="G150">
+        <v>16</v>
+      </c>
+      <c r="H150">
+        <v>2398</v>
+      </c>
+      <c r="I150">
+        <v>2414</v>
+      </c>
+      <c r="J150">
+        <v>93.168700000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>47</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151">
+        <v>8.3332999999999995</v>
+      </c>
+      <c r="D151">
+        <v>7.9617999999999994E-2</v>
+      </c>
+      <c r="E151">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1255</v>
+      </c>
+      <c r="H151">
+        <v>11</v>
+      </c>
+      <c r="I151">
+        <v>1266</v>
+      </c>
+      <c r="J151">
+        <v>10550</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>47</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152">
+        <v>21.739100000000001</v>
+      </c>
+      <c r="D152">
+        <v>2.3641000000000001</v>
+      </c>
+      <c r="E152">
+        <v>46</v>
+      </c>
+      <c r="F152">
+        <v>10</v>
+      </c>
+      <c r="G152">
+        <v>413</v>
+      </c>
+      <c r="H152">
+        <v>36</v>
+      </c>
+      <c r="I152">
+        <v>449</v>
+      </c>
+      <c r="J152">
+        <v>976.08699999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>48</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>87.263499999999993</v>
+      </c>
+      <c r="D153">
+        <v>100</v>
+      </c>
+      <c r="E153">
+        <v>2748</v>
+      </c>
+      <c r="F153">
+        <v>2398</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>350</v>
+      </c>
+      <c r="I153">
+        <v>350</v>
+      </c>
+      <c r="J153">
+        <v>12.736499999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>49</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <v>0.41466999999999998</v>
+      </c>
+      <c r="D154">
+        <v>100</v>
+      </c>
+      <c r="E154">
+        <v>3135</v>
+      </c>
+      <c r="F154">
+        <v>13</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>3122</v>
+      </c>
+      <c r="I154">
+        <v>3122</v>
+      </c>
+      <c r="J154">
+        <v>99.585300000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155">
+        <v>28.571400000000001</v>
+      </c>
+      <c r="D155">
+        <v>0.55556000000000005</v>
+      </c>
+      <c r="E155">
+        <v>7</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>358</v>
+      </c>
+      <c r="H155">
+        <v>5</v>
+      </c>
+      <c r="I155">
+        <v>363</v>
+      </c>
+      <c r="J155">
+        <v>5185.7142999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>109</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>8</v>
+      </c>
+      <c r="H156">
+        <v>109</v>
+      </c>
+      <c r="I156">
+        <v>117</v>
+      </c>
+      <c r="J156">
+        <v>107.3394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157">
+        <v>18.542400000000001</v>
+      </c>
+      <c r="D157">
+        <v>98.288499999999999</v>
+      </c>
+      <c r="E157">
+        <v>2168</v>
+      </c>
+      <c r="F157">
+        <v>402</v>
+      </c>
+      <c r="G157">
+        <v>7</v>
+      </c>
+      <c r="H157">
+        <v>1766</v>
+      </c>
+      <c r="I157">
+        <v>1773</v>
+      </c>
+      <c r="J157">
+        <v>81.7804</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158">
+        <v>16.666699999999999</v>
+      </c>
+      <c r="D158">
+        <v>0.15243999999999999</v>
+      </c>
+      <c r="E158">
+        <v>6</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>655</v>
+      </c>
+      <c r="H158">
+        <v>5</v>
+      </c>
+      <c r="I158">
+        <v>660</v>
+      </c>
+      <c r="J158">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>50</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159">
+        <v>22.7273</v>
+      </c>
+      <c r="D159">
+        <v>2.2198000000000002</v>
+      </c>
+      <c r="E159">
+        <v>88</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159">
+        <v>881</v>
+      </c>
+      <c r="H159">
+        <v>68</v>
+      </c>
+      <c r="I159">
+        <v>949</v>
+      </c>
+      <c r="J159">
+        <v>1078.4091000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>51</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160">
+        <v>0.47661999999999999</v>
+      </c>
+      <c r="D160">
+        <v>100</v>
+      </c>
+      <c r="E160">
+        <v>3357</v>
+      </c>
+      <c r="F160">
+        <v>16</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>3341</v>
+      </c>
+      <c r="I160">
+        <v>3341</v>
+      </c>
+      <c r="J160">
+        <v>99.523399999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>51</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>995</v>
+      </c>
+      <c r="H161">
+        <v>6</v>
+      </c>
+      <c r="I161">
+        <v>1001</v>
+      </c>
+      <c r="J161">
+        <v>16683.333299999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162">
+        <v>2.9586000000000001</v>
+      </c>
+      <c r="D162">
+        <v>45.454500000000003</v>
+      </c>
+      <c r="E162">
+        <v>338</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+      <c r="G162">
+        <v>12</v>
+      </c>
+      <c r="H162">
+        <v>328</v>
+      </c>
+      <c r="I162">
+        <v>340</v>
+      </c>
+      <c r="J162">
+        <v>100.5917</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>314</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
+        <v>317</v>
+      </c>
+      <c r="J163">
+        <v>10566.6667</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>52</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164">
+        <v>84.145700000000005</v>
+      </c>
+      <c r="D164">
+        <v>92.303200000000004</v>
+      </c>
+      <c r="E164">
+        <v>1867</v>
+      </c>
+      <c r="F164">
+        <v>1571</v>
+      </c>
+      <c r="G164">
+        <v>131</v>
+      </c>
+      <c r="H164">
+        <v>296</v>
+      </c>
+      <c r="I164">
+        <v>427</v>
+      </c>
+      <c r="J164">
+        <v>22.870899999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="D165">
+        <v>3.5148999999999999</v>
+      </c>
+      <c r="E165">
+        <v>329</v>
+      </c>
+      <c r="F165">
+        <v>20</v>
+      </c>
+      <c r="G165">
+        <v>549</v>
+      </c>
+      <c r="H165">
+        <v>309</v>
+      </c>
+      <c r="I165">
+        <v>858</v>
+      </c>
+      <c r="J165">
+        <v>260.7903</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166">
+        <v>17.7026</v>
+      </c>
+      <c r="D166">
+        <v>62.9191</v>
+      </c>
+      <c r="E166">
+        <v>1802</v>
+      </c>
+      <c r="F166">
+        <v>319</v>
+      </c>
+      <c r="G166">
+        <v>188</v>
+      </c>
+      <c r="H166">
+        <v>1483</v>
+      </c>
+      <c r="I166">
+        <v>1671</v>
+      </c>
+      <c r="J166">
+        <v>92.7303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167">
+        <v>34.782600000000002</v>
+      </c>
+      <c r="D167">
+        <v>1.5564</v>
+      </c>
+      <c r="E167">
+        <v>23</v>
+      </c>
+      <c r="F167">
+        <v>8</v>
+      </c>
+      <c r="G167">
+        <v>506</v>
+      </c>
+      <c r="H167">
+        <v>15</v>
+      </c>
+      <c r="I167">
+        <v>521</v>
+      </c>
+      <c r="J167">
+        <v>2265.2174</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>54</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>33.3003</v>
+      </c>
+      <c r="D168">
+        <v>99.851600000000005</v>
+      </c>
+      <c r="E168">
+        <v>2021</v>
+      </c>
+      <c r="F168">
+        <v>673</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1348</v>
+      </c>
+      <c r="I168">
+        <v>1349</v>
+      </c>
+      <c r="J168">
+        <v>66.749099999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>54</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>3.7037</v>
+      </c>
+      <c r="D169">
+        <v>0.11751</v>
+      </c>
+      <c r="E169">
+        <v>27</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>850</v>
+      </c>
+      <c r="H169">
+        <v>26</v>
+      </c>
+      <c r="I169">
+        <v>876</v>
+      </c>
+      <c r="J169">
+        <v>3244.4443999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170">
+        <v>12.4735</v>
+      </c>
+      <c r="D170">
+        <v>96.3934</v>
+      </c>
+      <c r="E170">
+        <v>2357</v>
+      </c>
+      <c r="F170">
+        <v>294</v>
+      </c>
+      <c r="G170">
+        <v>11</v>
+      </c>
+      <c r="H170">
+        <v>2063</v>
+      </c>
+      <c r="I170">
+        <v>2074</v>
+      </c>
+      <c r="J170">
+        <v>87.993200000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171">
+        <v>33.333300000000001</v>
+      </c>
+      <c r="D171">
+        <v>0.31596000000000002</v>
+      </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>631</v>
+      </c>
+      <c r="H171">
+        <v>4</v>
+      </c>
+      <c r="I171">
+        <v>635</v>
+      </c>
+      <c r="J171">
+        <v>10583.3333</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>55</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172">
+        <v>46.875</v>
+      </c>
+      <c r="D172">
+        <v>3.5971000000000002</v>
+      </c>
+      <c r="E172">
+        <v>64</v>
+      </c>
+      <c r="F172">
+        <v>30</v>
+      </c>
+      <c r="G172">
+        <v>804</v>
+      </c>
+      <c r="H172">
+        <v>34</v>
+      </c>
+      <c r="I172">
+        <v>838</v>
+      </c>
+      <c r="J172">
+        <v>1309.375</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <v>68.924599999999998</v>
+      </c>
+      <c r="D173">
+        <v>91.666700000000006</v>
+      </c>
+      <c r="E173">
+        <v>1181</v>
+      </c>
+      <c r="F173">
+        <v>814</v>
+      </c>
+      <c r="G173">
+        <v>74</v>
+      </c>
+      <c r="H173">
+        <v>367</v>
+      </c>
+      <c r="I173">
+        <v>441</v>
+      </c>
+      <c r="J173">
+        <v>37.341200000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>56</v>
+      </c>
+      <c r="B174" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174">
+        <v>24.3935</v>
+      </c>
+      <c r="D174">
+        <v>59.539499999999997</v>
+      </c>
+      <c r="E174">
+        <v>742</v>
+      </c>
+      <c r="F174">
+        <v>181</v>
+      </c>
+      <c r="G174">
+        <v>123</v>
+      </c>
+      <c r="H174">
+        <v>561</v>
+      </c>
+      <c r="I174">
+        <v>684</v>
+      </c>
+      <c r="J174">
+        <v>92.183300000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>56</v>
+      </c>
+      <c r="B175" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175">
+        <v>22.340399999999999</v>
+      </c>
+      <c r="D175">
+        <v>7.5540000000000003</v>
+      </c>
+      <c r="E175">
+        <v>188</v>
+      </c>
+      <c r="F175">
+        <v>42</v>
+      </c>
+      <c r="G175">
+        <v>514</v>
+      </c>
+      <c r="H175">
+        <v>146</v>
+      </c>
+      <c r="I175">
+        <v>660</v>
+      </c>
+      <c r="J175">
+        <v>351.06380000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>56</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176">
+        <v>42.204300000000003</v>
+      </c>
+      <c r="D176">
+        <v>42.547400000000003</v>
+      </c>
+      <c r="E176">
+        <v>372</v>
+      </c>
+      <c r="F176">
+        <v>157</v>
+      </c>
+      <c r="G176">
+        <v>212</v>
+      </c>
+      <c r="H176">
+        <v>215</v>
+      </c>
+      <c r="I176">
+        <v>427</v>
+      </c>
+      <c r="J176">
+        <v>114.78489999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177">
+        <v>43.236499999999999</v>
+      </c>
+      <c r="D177">
+        <v>96.857500000000002</v>
+      </c>
+      <c r="E177">
+        <v>1996</v>
+      </c>
+      <c r="F177">
+        <v>863</v>
+      </c>
+      <c r="G177">
+        <v>28</v>
+      </c>
+      <c r="H177">
+        <v>1133</v>
+      </c>
+      <c r="I177">
+        <v>1161</v>
+      </c>
+      <c r="J177">
+        <v>58.1663</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178">
+        <v>47.513800000000003</v>
+      </c>
+      <c r="D178">
+        <v>9.6521000000000008</v>
+      </c>
+      <c r="E178">
+        <v>181</v>
+      </c>
+      <c r="F178">
+        <v>86</v>
+      </c>
+      <c r="G178">
+        <v>805</v>
+      </c>
+      <c r="H178">
+        <v>95</v>
+      </c>
+      <c r="I178">
+        <v>900</v>
+      </c>
+      <c r="J178">
+        <v>497.23759999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179">
+        <v>15.1869</v>
+      </c>
+      <c r="D179">
+        <v>32.6633</v>
+      </c>
+      <c r="E179">
+        <v>428</v>
+      </c>
+      <c r="F179">
         <v>65</v>
       </c>
-      <c r="C98">
-        <f>F98/(F98+H98)*100</f>
-        <v>37.225290921788975</v>
-      </c>
-      <c r="D98">
-        <f>F98/(F98+G98)*100</f>
-        <v>65.093337139775741</v>
-      </c>
-      <c r="E98">
-        <f>SUM(E2:E97)</f>
-        <v>110253</v>
-      </c>
-      <c r="F98">
-        <f>SUM(F2:F97)</f>
-        <v>41042</v>
-      </c>
-      <c r="G98">
-        <f>SUM(G2:G97)</f>
-        <v>22009</v>
-      </c>
-      <c r="H98">
-        <f>SUM(H2:H97)</f>
-        <v>69211</v>
-      </c>
-      <c r="I98">
-        <f>SUM(I2:I97)</f>
-        <v>91220</v>
-      </c>
-      <c r="J98">
-        <f>I98/E98*100</f>
-        <v>82.736977678611922</v>
+      <c r="G179">
+        <v>134</v>
+      </c>
+      <c r="H179">
+        <v>363</v>
+      </c>
+      <c r="I179">
+        <v>497</v>
+      </c>
+      <c r="J179">
+        <v>116.1215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>58</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180">
+        <v>10.428000000000001</v>
+      </c>
+      <c r="D180">
+        <v>98.857100000000003</v>
+      </c>
+      <c r="E180">
+        <v>1659</v>
+      </c>
+      <c r="F180">
+        <v>173</v>
+      </c>
+      <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="H180">
+        <v>1486</v>
+      </c>
+      <c r="I180">
+        <v>1488</v>
+      </c>
+      <c r="J180">
+        <v>89.692599999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>58</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181">
+        <v>58.883200000000002</v>
+      </c>
+      <c r="D181">
+        <v>42.413200000000003</v>
+      </c>
+      <c r="E181">
+        <v>394</v>
+      </c>
+      <c r="F181">
+        <v>232</v>
+      </c>
+      <c r="G181">
+        <v>315</v>
+      </c>
+      <c r="H181">
+        <v>162</v>
+      </c>
+      <c r="I181">
+        <v>477</v>
+      </c>
+      <c r="J181">
+        <v>121.066</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182">
+        <v>61.148400000000002</v>
+      </c>
+      <c r="D182">
+        <v>93.714299999999994</v>
+      </c>
+      <c r="E182">
+        <v>1341</v>
+      </c>
+      <c r="F182">
+        <v>820</v>
+      </c>
+      <c r="G182">
+        <v>55</v>
+      </c>
+      <c r="H182">
+        <v>521</v>
+      </c>
+      <c r="I182">
+        <v>576</v>
+      </c>
+      <c r="J182">
+        <v>42.953000000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>59</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183">
+        <v>49.070999999999998</v>
+      </c>
+      <c r="D183">
+        <v>63.150500000000001</v>
+      </c>
+      <c r="E183">
+        <v>915</v>
+      </c>
+      <c r="F183">
+        <v>449</v>
+      </c>
+      <c r="G183">
+        <v>262</v>
+      </c>
+      <c r="H183">
+        <v>466</v>
+      </c>
+      <c r="I183">
+        <v>728</v>
+      </c>
+      <c r="J183">
+        <v>79.562799999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>60</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184">
+        <v>90.790599999999998</v>
+      </c>
+      <c r="D184">
+        <v>100</v>
+      </c>
+      <c r="E184">
+        <v>1151</v>
+      </c>
+      <c r="F184">
+        <v>1045</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>106</v>
+      </c>
+      <c r="I184">
+        <v>106</v>
+      </c>
+      <c r="J184">
+        <v>9.2094000000000005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>60</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185">
+        <v>0.95238</v>
+      </c>
+      <c r="D185">
+        <v>19.047599999999999</v>
+      </c>
+      <c r="E185">
+        <v>420</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+      <c r="G185">
+        <v>17</v>
+      </c>
+      <c r="H185">
+        <v>416</v>
+      </c>
+      <c r="I185">
+        <v>433</v>
+      </c>
+      <c r="J185">
+        <v>103.09520000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>61</v>
+      </c>
+      <c r="B186" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186">
+        <v>1.1235999999999999</v>
+      </c>
+      <c r="D186">
+        <v>100</v>
+      </c>
+      <c r="E186">
+        <v>1780</v>
+      </c>
+      <c r="F186">
+        <v>20</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>1760</v>
+      </c>
+      <c r="I186">
+        <v>1760</v>
+      </c>
+      <c r="J186">
+        <v>98.876400000000004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>63</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187">
+        <v>5.8864999999999998</v>
+      </c>
+      <c r="D187">
+        <v>100</v>
+      </c>
+      <c r="E187">
+        <v>2871</v>
+      </c>
+      <c r="F187">
+        <v>169</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>2702</v>
+      </c>
+      <c r="I187">
+        <v>2702</v>
+      </c>
+      <c r="J187">
+        <v>94.113500000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>63</v>
+      </c>
+      <c r="B188" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188">
+        <v>27.777799999999999</v>
+      </c>
+      <c r="D188">
+        <v>0.62343999999999999</v>
+      </c>
+      <c r="E188">
+        <v>18</v>
+      </c>
+      <c r="F188">
+        <v>5</v>
+      </c>
+      <c r="G188">
+        <v>797</v>
+      </c>
+      <c r="H188">
+        <v>13</v>
+      </c>
+      <c r="I188">
+        <v>810</v>
+      </c>
+      <c r="J188">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>63</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189">
+        <v>52.631599999999999</v>
+      </c>
+      <c r="D189">
+        <v>14.005599999999999</v>
+      </c>
+      <c r="E189">
+        <v>190</v>
+      </c>
+      <c r="F189">
+        <v>100</v>
+      </c>
+      <c r="G189">
+        <v>614</v>
+      </c>
+      <c r="H189">
+        <v>90</v>
+      </c>
+      <c r="I189">
+        <v>704</v>
+      </c>
+      <c r="J189">
+        <v>370.52629999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>64</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190">
+        <v>95.708500000000001</v>
+      </c>
+      <c r="D190">
+        <v>99.884200000000007</v>
+      </c>
+      <c r="E190">
+        <v>2703</v>
+      </c>
+      <c r="F190">
+        <v>2587</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190">
+        <v>116</v>
+      </c>
+      <c r="I190">
+        <v>119</v>
+      </c>
+      <c r="J190">
+        <v>4.4024999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>64</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>100</v>
+      </c>
+      <c r="E191">
+        <v>50</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>48</v>
+      </c>
+      <c r="I191">
+        <v>48</v>
+      </c>
+      <c r="J191">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J98" xr:uid="{BC012900-FA7B-4FF1-94F3-DE96CCAA67BA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DeteccionArritmiasTotal.xlsx
+++ b/DeteccionArritmiasTotal.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Documents\Arritmias\algoritmoArritmias-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D339B964-2F81-4A3A-9209-E1FFEB258134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01323DF6-6C85-40E1-9DA5-F42C41902E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14535" yWindow="345" windowWidth="2400" windowHeight="585" xr2:uid="{4C325BAF-2CF2-414D-8FF5-F6E93F90FF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4C325BAF-2CF2-414D-8FF5-F6E93F90FF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$191</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="65">
   <si>
     <t>Registro</t>
   </si>
@@ -235,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,13 +248,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -264,8 +287,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6E7827-8239-4A26-93D7-F1ED8029C7A1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190:J191"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection sqref="A1:J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +746,7 @@
         <v>108.8235</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -812,7 +842,7 @@
         <v>113.8408</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -908,7 +938,7 @@
         <v>50.101100000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -940,7 +970,7 @@
         <v>266.66669999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -972,7 +1002,7 @@
         <v>103.8817</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1226,7 @@
         <v>84.134600000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1388,7 +1418,7 @@
         <v>41.121499999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1548,7 +1578,7 @@
         <v>88.787499999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1612,7 +1642,7 @@
         <v>74.248900000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1644,7 +1674,7 @@
         <v>1673.913</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1708,7 +1738,7 @@
         <v>117.852</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1740,7 +1770,7 @@
         <v>108.0132</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1804,7 +1834,7 @@
         <v>94.322299999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1836,7 +1866,7 @@
         <v>172.11539999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1868,7 +1898,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1900,7 +1930,7 @@
         <v>116.2313</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1932,7 +1962,7 @@
         <v>91.964299999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1964,7 +1994,7 @@
         <v>955.69619999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2028,7 +2058,7 @@
         <v>4.0275999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2122,7 @@
         <v>99.798000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -2124,7 +2154,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2156,7 +2186,7 @@
         <v>95.762699999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2220,7 +2250,7 @@
         <v>95.169899999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -2284,7 +2314,7 @@
         <v>49.817799999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -2316,7 +2346,7 @@
         <v>99.233699999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -2348,7 +2378,7 @@
         <v>93.168700000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -2380,7 +2410,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -2476,7 +2506,7 @@
         <v>99.585300000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2508,7 +2538,7 @@
         <v>5185.7142999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2572,7 +2602,7 @@
         <v>81.7804</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2604,7 +2634,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -2668,7 +2698,7 @@
         <v>99.523399999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -2700,7 +2730,7 @@
         <v>16683.333299999998</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -2732,7 +2762,7 @@
         <v>100.5917</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -2764,7 +2794,7 @@
         <v>10566.6667</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -2828,7 +2858,7 @@
         <v>260.7903</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -2860,7 +2890,7 @@
         <v>92.7303</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -2924,7 +2954,7 @@
         <v>66.749099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -2956,7 +2986,7 @@
         <v>3244.4443999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -2988,7 +3018,7 @@
         <v>87.993200000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -3020,7 +3050,7 @@
         <v>10583.3333</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>55</v>
       </c>
@@ -3084,7 +3114,7 @@
         <v>37.341200000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -3116,7 +3146,7 @@
         <v>92.183300000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>56</v>
       </c>
@@ -3148,7 +3178,7 @@
         <v>351.06380000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -3212,7 +3242,7 @@
         <v>58.1663</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>57</v>
       </c>
@@ -3244,7 +3274,7 @@
         <v>497.23759999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>57</v>
       </c>
@@ -3308,7 +3338,7 @@
         <v>89.692599999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -3372,7 +3402,7 @@
         <v>42.953000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -3436,7 +3466,7 @@
         <v>9.2094000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -3468,7 +3498,7 @@
         <v>103.09520000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>61</v>
       </c>
@@ -3532,7 +3562,7 @@
         <v>94.113500000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>63</v>
       </c>
@@ -3564,7 +3594,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>63</v>
       </c>
@@ -3628,7 +3658,7 @@
         <v>4.4024999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>64</v>
       </c>
@@ -3756,7 +3786,7 @@
         <v>108.8235</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -3852,7 +3882,7 @@
         <v>113.8408</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3948,7 +3978,7 @@
         <v>50.101100000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -3980,7 +4010,7 @@
         <v>266.66669999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -4012,7 +4042,7 @@
         <v>103.8817</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -4236,7 +4266,7 @@
         <v>84.134600000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -4428,7 +4458,7 @@
         <v>41.121499999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -4588,7 +4618,7 @@
         <v>88.787499999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>35</v>
       </c>
@@ -4652,7 +4682,7 @@
         <v>74.248900000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -4684,7 +4714,7 @@
         <v>1673.913</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -4748,7 +4778,7 @@
         <v>117.852</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -4780,7 +4810,7 @@
         <v>108.0132</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -4844,7 +4874,7 @@
         <v>94.322299999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>39</v>
       </c>
@@ -4876,7 +4906,7 @@
         <v>172.11539999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -4908,7 +4938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -4940,7 +4970,7 @@
         <v>116.2313</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -4972,7 +5002,7 @@
         <v>91.964299999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -5004,7 +5034,7 @@
         <v>955.69619999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -5068,7 +5098,7 @@
         <v>4.0275999999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -5132,7 +5162,7 @@
         <v>99.798000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>43</v>
       </c>
@@ -5164,7 +5194,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -5196,7 +5226,7 @@
         <v>95.762699999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>43</v>
       </c>
@@ -5260,7 +5290,7 @@
         <v>95.169899999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -5324,7 +5354,7 @@
         <v>49.817799999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>46</v>
       </c>
@@ -5356,7 +5386,7 @@
         <v>99.233699999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -5388,7 +5418,7 @@
         <v>93.168700000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>47</v>
       </c>
@@ -5420,7 +5450,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -5516,7 +5546,7 @@
         <v>99.585300000000004</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>49</v>
       </c>
@@ -5548,7 +5578,7 @@
         <v>5185.7142999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>49</v>
       </c>
@@ -5612,7 +5642,7 @@
         <v>81.7804</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>50</v>
       </c>
@@ -5644,7 +5674,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>50</v>
       </c>
@@ -5708,7 +5738,7 @@
         <v>99.523399999999995</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>51</v>
       </c>
@@ -5740,7 +5770,7 @@
         <v>16683.333299999998</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>52</v>
       </c>
@@ -5772,7 +5802,7 @@
         <v>100.5917</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>52</v>
       </c>
@@ -5804,7 +5834,7 @@
         <v>10566.6667</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>52</v>
       </c>
@@ -5868,7 +5898,7 @@
         <v>260.7903</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>53</v>
       </c>
@@ -5900,7 +5930,7 @@
         <v>92.7303</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>53</v>
       </c>
@@ -5964,7 +5994,7 @@
         <v>66.749099999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -5996,7 +6026,7 @@
         <v>3244.4443999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>55</v>
       </c>
@@ -6028,7 +6058,7 @@
         <v>87.993200000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>55</v>
       </c>
@@ -6060,7 +6090,7 @@
         <v>10583.3333</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>55</v>
       </c>
@@ -6124,7 +6154,7 @@
         <v>37.341200000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>56</v>
       </c>
@@ -6156,7 +6186,7 @@
         <v>92.183300000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>56</v>
       </c>
@@ -6188,7 +6218,7 @@
         <v>351.06380000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>56</v>
       </c>
@@ -6252,7 +6282,7 @@
         <v>58.1663</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>57</v>
       </c>
@@ -6284,7 +6314,7 @@
         <v>497.23759999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>57</v>
       </c>
@@ -6348,7 +6378,7 @@
         <v>89.692599999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>58</v>
       </c>
@@ -6412,7 +6442,7 @@
         <v>42.953000000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>59</v>
       </c>
@@ -6476,7 +6506,7 @@
         <v>9.2094000000000005</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>60</v>
       </c>
@@ -6508,7 +6538,7 @@
         <v>103.09520000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>61</v>
       </c>
@@ -6572,7 +6602,7 @@
         <v>94.113500000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -6604,7 +6634,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>63</v>
       </c>
@@ -6668,7 +6698,7 @@
         <v>4.4024999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>64</v>
       </c>
@@ -6698,6 +6728,2931 @@
       </c>
       <c r="J191">
         <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J191" xr:uid="{795BCC06-70E3-4BAD-9944-60ECEE581F67}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Ritmo Sinusal Normal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DA5D21-2274-47C4-864B-28980C75358D}">
+  <dimension ref="A1:S50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>54.676299999999998</v>
+      </c>
+      <c r="E2">
+        <v>95.878900000000002</v>
+      </c>
+      <c r="F2">
+        <v>2085</v>
+      </c>
+      <c r="G2">
+        <v>1140</v>
+      </c>
+      <c r="H2">
+        <v>49</v>
+      </c>
+      <c r="I2">
+        <v>945</v>
+      </c>
+      <c r="J2">
+        <v>994</v>
+      </c>
+      <c r="K2">
+        <v>47.673900000000003</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>33.762900000000002</v>
+      </c>
+      <c r="E3">
+        <v>81.875</v>
+      </c>
+      <c r="F3">
+        <v>1940</v>
+      </c>
+      <c r="G3">
+        <v>655</v>
+      </c>
+      <c r="H3">
+        <v>145</v>
+      </c>
+      <c r="I3">
+        <v>1285</v>
+      </c>
+      <c r="J3">
+        <v>1430</v>
+      </c>
+      <c r="K3">
+        <v>73.711299999999994</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2027</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>54.898299999999999</v>
+      </c>
+      <c r="E4">
+        <v>48.292700000000004</v>
+      </c>
+      <c r="F4">
+        <v>541</v>
+      </c>
+      <c r="G4">
+        <v>297</v>
+      </c>
+      <c r="H4">
+        <v>318</v>
+      </c>
+      <c r="I4">
+        <v>244</v>
+      </c>
+      <c r="J4">
+        <v>562</v>
+      </c>
+      <c r="K4">
+        <v>103.8817</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>95.5077</v>
+      </c>
+      <c r="E5">
+        <v>99.804400000000001</v>
+      </c>
+      <c r="F5">
+        <v>2137</v>
+      </c>
+      <c r="G5">
+        <v>2041</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>96</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>4.6795</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1879</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>57.142899999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.27951999999999999</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1427</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1430</v>
+      </c>
+      <c r="K6">
+        <v>20428.571400000001</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1987</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>42.535800000000002</v>
+      </c>
+      <c r="E7">
+        <v>50.6083</v>
+      </c>
+      <c r="F7">
+        <v>489</v>
+      </c>
+      <c r="G7">
+        <v>208</v>
+      </c>
+      <c r="H7">
+        <v>203</v>
+      </c>
+      <c r="I7">
+        <v>281</v>
+      </c>
+      <c r="J7">
+        <v>484</v>
+      </c>
+      <c r="K7">
+        <v>98.977500000000006</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1619</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>61.176499999999997</v>
+      </c>
+      <c r="E8">
+        <v>8.7394999999999996</v>
+      </c>
+      <c r="F8">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>543</v>
+      </c>
+      <c r="I8">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>576</v>
+      </c>
+      <c r="K8">
+        <v>677.64710000000002</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2601</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>29.830500000000001</v>
+      </c>
+      <c r="E9">
+        <v>75.536500000000004</v>
+      </c>
+      <c r="F9">
+        <v>1180</v>
+      </c>
+      <c r="G9">
+        <v>352</v>
+      </c>
+      <c r="H9">
+        <v>114</v>
+      </c>
+      <c r="I9">
+        <v>828</v>
+      </c>
+      <c r="J9">
+        <v>942</v>
+      </c>
+      <c r="K9">
+        <v>79.830500000000001</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1961</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>50.969499999999996</v>
+      </c>
+      <c r="E10">
+        <v>28.264199999999999</v>
+      </c>
+      <c r="F10">
+        <v>361</v>
+      </c>
+      <c r="G10">
+        <v>184</v>
+      </c>
+      <c r="H10">
+        <v>467</v>
+      </c>
+      <c r="I10">
+        <v>177</v>
+      </c>
+      <c r="J10">
+        <v>644</v>
+      </c>
+      <c r="K10">
+        <v>178.39340000000001</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2974</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>14.2857</v>
+      </c>
+      <c r="E11">
+        <v>0.12755</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>783</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>789</v>
+      </c>
+      <c r="K11">
+        <v>11271.428599999999</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>41.192399999999999</v>
+      </c>
+      <c r="E12">
+        <v>10.7042</v>
+      </c>
+      <c r="F12">
+        <v>369</v>
+      </c>
+      <c r="G12">
+        <v>152</v>
+      </c>
+      <c r="H12">
+        <v>1268</v>
+      </c>
+      <c r="I12">
+        <v>217</v>
+      </c>
+      <c r="J12">
+        <v>1485</v>
+      </c>
+      <c r="K12">
+        <v>402.43900000000002</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2953</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>11.3725</v>
+      </c>
+      <c r="E13">
+        <v>10.642200000000001</v>
+      </c>
+      <c r="F13">
+        <v>510</v>
+      </c>
+      <c r="G13">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>487</v>
+      </c>
+      <c r="I13">
+        <v>452</v>
+      </c>
+      <c r="J13">
+        <v>939</v>
+      </c>
+      <c r="K13">
+        <v>184.11760000000001</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3005</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>1.9157</v>
+      </c>
+      <c r="E14">
+        <v>62.5</v>
+      </c>
+      <c r="F14">
+        <v>261</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>256</v>
+      </c>
+      <c r="J14">
+        <v>259</v>
+      </c>
+      <c r="K14">
+        <v>99.233699999999999</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2649</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>21.739100000000001</v>
+      </c>
+      <c r="E15">
+        <v>2.3641000000000001</v>
+      </c>
+      <c r="F15">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>413</v>
+      </c>
+      <c r="I15">
+        <v>36</v>
+      </c>
+      <c r="J15">
+        <v>449</v>
+      </c>
+      <c r="K15">
+        <v>976.08699999999999</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>109</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>109</v>
+      </c>
+      <c r="J16">
+        <v>117</v>
+      </c>
+      <c r="K16">
+        <v>107.3394</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2262</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>22.7273</v>
+      </c>
+      <c r="E17">
+        <v>2.2198000000000002</v>
+      </c>
+      <c r="F17">
+        <v>88</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>881</v>
+      </c>
+      <c r="I17">
+        <v>68</v>
+      </c>
+      <c r="J17">
+        <v>949</v>
+      </c>
+      <c r="K17">
+        <v>1078.4091000000001</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2208</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>84.145700000000005</v>
+      </c>
+      <c r="E18">
+        <v>92.303200000000004</v>
+      </c>
+      <c r="F18">
+        <v>1867</v>
+      </c>
+      <c r="G18">
+        <v>1571</v>
+      </c>
+      <c r="H18">
+        <v>131</v>
+      </c>
+      <c r="I18">
+        <v>296</v>
+      </c>
+      <c r="J18">
+        <v>427</v>
+      </c>
+      <c r="K18">
+        <v>22.870899999999999</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>34.782600000000002</v>
+      </c>
+      <c r="E19">
+        <v>1.5564</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>506</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>521</v>
+      </c>
+      <c r="K19">
+        <v>2265.2174</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>3.7037</v>
+      </c>
+      <c r="E20">
+        <v>0.11751</v>
+      </c>
+      <c r="F20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>850</v>
+      </c>
+      <c r="I20">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>876</v>
+      </c>
+      <c r="K20">
+        <v>3244.4443999999999</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2427</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>46.875</v>
+      </c>
+      <c r="E21">
+        <v>3.5971000000000002</v>
+      </c>
+      <c r="F21">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>804</v>
+      </c>
+      <c r="I21">
+        <v>34</v>
+      </c>
+      <c r="J21">
+        <v>838</v>
+      </c>
+      <c r="K21">
+        <v>1309.375</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2483</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>42.204300000000003</v>
+      </c>
+      <c r="E22">
+        <v>42.547400000000003</v>
+      </c>
+      <c r="F22">
+        <v>372</v>
+      </c>
+      <c r="G22">
+        <v>157</v>
+      </c>
+      <c r="H22">
+        <v>212</v>
+      </c>
+      <c r="I22">
+        <v>215</v>
+      </c>
+      <c r="J22">
+        <v>427</v>
+      </c>
+      <c r="K22">
+        <v>114.78489999999999</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2605</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>15.1869</v>
+      </c>
+      <c r="E23">
+        <v>32.6633</v>
+      </c>
+      <c r="F23">
+        <v>428</v>
+      </c>
+      <c r="G23">
+        <v>65</v>
+      </c>
+      <c r="H23">
+        <v>134</v>
+      </c>
+      <c r="I23">
+        <v>363</v>
+      </c>
+      <c r="J23">
+        <v>497</v>
+      </c>
+      <c r="K23">
+        <v>116.1215</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2053</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>58.883200000000002</v>
+      </c>
+      <c r="E24">
+        <v>42.413200000000003</v>
+      </c>
+      <c r="F24">
+        <v>394</v>
+      </c>
+      <c r="G24">
+        <v>232</v>
+      </c>
+      <c r="H24">
+        <v>315</v>
+      </c>
+      <c r="I24">
+        <v>162</v>
+      </c>
+      <c r="J24">
+        <v>477</v>
+      </c>
+      <c r="K24">
+        <v>121.066</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2256</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>49.070999999999998</v>
+      </c>
+      <c r="E25">
+        <v>63.150500000000001</v>
+      </c>
+      <c r="F25">
+        <v>915</v>
+      </c>
+      <c r="G25">
+        <v>449</v>
+      </c>
+      <c r="H25">
+        <v>262</v>
+      </c>
+      <c r="I25">
+        <v>466</v>
+      </c>
+      <c r="J25">
+        <v>728</v>
+      </c>
+      <c r="K25">
+        <v>79.562799999999996</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1571</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>0.95238</v>
+      </c>
+      <c r="E26">
+        <v>19.047599999999999</v>
+      </c>
+      <c r="F26">
+        <v>420</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>416</v>
+      </c>
+      <c r="J26">
+        <v>433</v>
+      </c>
+      <c r="K26">
+        <v>103.09520000000001</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3079</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>52.631599999999999</v>
+      </c>
+      <c r="E27">
+        <v>14.005599999999999</v>
+      </c>
+      <c r="F27">
+        <v>190</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>614</v>
+      </c>
+      <c r="I27">
+        <v>90</v>
+      </c>
+      <c r="J27">
+        <v>704</v>
+      </c>
+      <c r="K27">
+        <v>370.52629999999999</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2753</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>48</v>
+      </c>
+      <c r="J28">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>96</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>SUM(B2:B28)</f>
+        <v>63690</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="13:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="2:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="2:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8E8648-13CF-488F-AB80-4F7F6A86F737}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>69.115700000000004</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>2273</v>
+      </c>
+      <c r="F2">
+        <v>1571</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>702</v>
+      </c>
+      <c r="I2">
+        <v>702</v>
+      </c>
+      <c r="J2">
+        <v>30.8843</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>96.081599999999995</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>1863</v>
+      </c>
+      <c r="F3">
+        <v>1790</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>73</v>
+      </c>
+      <c r="J3">
+        <v>3.9184000000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>64.7059</v>
+      </c>
+      <c r="D4">
+        <v>46.808500000000002</v>
+      </c>
+      <c r="E4">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>111</v>
+      </c>
+      <c r="J4">
+        <v>108.8235</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>73.512500000000003</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>2084</v>
+      </c>
+      <c r="F5">
+        <v>1532</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>552</v>
+      </c>
+      <c r="I5">
+        <v>552</v>
+      </c>
+      <c r="J5">
+        <v>26.487500000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>17.993099999999998</v>
+      </c>
+      <c r="D6">
+        <v>36.1111</v>
+      </c>
+      <c r="E6">
+        <v>289</v>
+      </c>
+      <c r="F6">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>92</v>
+      </c>
+      <c r="H6">
+        <v>237</v>
+      </c>
+      <c r="I6">
+        <v>329</v>
+      </c>
+      <c r="J6">
+        <v>113.8408</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>11.858499999999999</v>
+      </c>
+      <c r="D7">
+        <v>99.673199999999994</v>
+      </c>
+      <c r="E7">
+        <v>2572</v>
+      </c>
+      <c r="F7">
+        <v>305</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2267</v>
+      </c>
+      <c r="I7">
+        <v>2268</v>
+      </c>
+      <c r="J7">
+        <v>88.180400000000006</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>49.966299999999997</v>
+      </c>
+      <c r="D8">
+        <v>99.865200000000002</v>
+      </c>
+      <c r="E8">
+        <v>1483</v>
+      </c>
+      <c r="F8">
+        <v>741</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>742</v>
+      </c>
+      <c r="I8">
+        <v>743</v>
+      </c>
+      <c r="J8">
+        <v>50.101100000000002</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>16.524699999999999</v>
+      </c>
+      <c r="D9">
+        <v>99.657499999999999</v>
+      </c>
+      <c r="E9">
+        <v>1761</v>
+      </c>
+      <c r="F9">
+        <v>291</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1470</v>
+      </c>
+      <c r="I9">
+        <v>1471</v>
+      </c>
+      <c r="J9">
+        <v>83.5321</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>3.4754999999999998</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>2532</v>
+      </c>
+      <c r="F10">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2444</v>
+      </c>
+      <c r="I10">
+        <v>2444</v>
+      </c>
+      <c r="J10">
+        <v>96.524500000000003</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1.1776</v>
+      </c>
+      <c r="D11">
+        <v>96.153800000000004</v>
+      </c>
+      <c r="E11">
+        <v>2123</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2098</v>
+      </c>
+      <c r="I11">
+        <v>2099</v>
+      </c>
+      <c r="J11">
+        <v>98.869500000000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>25.758199999999999</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>2539</v>
+      </c>
+      <c r="F12">
+        <v>654</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1885</v>
+      </c>
+      <c r="I12">
+        <v>1885</v>
+      </c>
+      <c r="J12">
+        <v>74.241799999999998</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>73.728300000000004</v>
+      </c>
+      <c r="D13">
+        <v>99.848600000000005</v>
+      </c>
+      <c r="E13">
+        <v>1789</v>
+      </c>
+      <c r="F13">
+        <v>1319</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>470</v>
+      </c>
+      <c r="I13">
+        <v>472</v>
+      </c>
+      <c r="J13">
+        <v>26.383500000000002</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>15.865399999999999</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1872</v>
+      </c>
+      <c r="F14">
+        <v>297</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1575</v>
+      </c>
+      <c r="I14">
+        <v>1575</v>
+      </c>
+      <c r="J14">
+        <v>84.134600000000006</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>84.894999999999996</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1953</v>
+      </c>
+      <c r="F15">
+        <v>1658</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>295</v>
+      </c>
+      <c r="I15">
+        <v>295</v>
+      </c>
+      <c r="J15">
+        <v>15.105</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>56.799300000000002</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>2412</v>
+      </c>
+      <c r="F16">
+        <v>1370</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1042</v>
+      </c>
+      <c r="I16">
+        <v>1042</v>
+      </c>
+      <c r="J16">
+        <v>43.200699999999998</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>0.78176000000000001</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>1535</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1523</v>
+      </c>
+      <c r="I17">
+        <v>1523</v>
+      </c>
+      <c r="J17">
+        <v>99.218199999999996</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>35.136299999999999</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>2274</v>
+      </c>
+      <c r="F18">
+        <v>799</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1475</v>
+      </c>
+      <c r="I18">
+        <v>1475</v>
+      </c>
+      <c r="J18">
+        <v>64.863699999999994</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>63.7517</v>
+      </c>
+      <c r="D19">
+        <v>92.898799999999994</v>
+      </c>
+      <c r="E19">
+        <v>1498</v>
+      </c>
+      <c r="F19">
+        <v>955</v>
+      </c>
+      <c r="G19">
+        <v>73</v>
+      </c>
+      <c r="H19">
+        <v>543</v>
+      </c>
+      <c r="I19">
+        <v>616</v>
+      </c>
+      <c r="J19">
+        <v>41.121499999999997</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>21.846499999999999</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>1863</v>
+      </c>
+      <c r="F20">
+        <v>407</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1456</v>
+      </c>
+      <c r="I20">
+        <v>1456</v>
+      </c>
+      <c r="J20">
+        <v>78.153499999999994</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>99.272999999999996</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>2476</v>
+      </c>
+      <c r="F21">
+        <v>2458</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>0.72697999999999996</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>6.2582000000000004</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>1518</v>
+      </c>
+      <c r="F22">
+        <v>95</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1423</v>
+      </c>
+      <c r="I22">
+        <v>1423</v>
+      </c>
+      <c r="J22">
+        <v>93.741799999999998</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>11.929600000000001</v>
+      </c>
+      <c r="D23">
+        <v>94.329899999999995</v>
+      </c>
+      <c r="E23">
+        <v>1534</v>
+      </c>
+      <c r="F23">
+        <v>183</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>1351</v>
+      </c>
+      <c r="I23">
+        <v>1362</v>
+      </c>
+      <c r="J23">
+        <v>88.787499999999994</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>27.4678</v>
+      </c>
+      <c r="D24">
+        <v>94.117599999999996</v>
+      </c>
+      <c r="E24">
+        <v>1398</v>
+      </c>
+      <c r="F24">
+        <v>384</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>1014</v>
+      </c>
+      <c r="I24">
+        <v>1038</v>
+      </c>
+      <c r="J24">
+        <v>74.248900000000006</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>4.0639000000000003</v>
+      </c>
+      <c r="D25">
+        <v>15.6425</v>
+      </c>
+      <c r="E25">
+        <v>689</v>
+      </c>
+      <c r="F25">
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <v>151</v>
+      </c>
+      <c r="H25">
+        <v>661</v>
+      </c>
+      <c r="I25">
+        <v>812</v>
+      </c>
+      <c r="J25">
+        <v>117.852</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>11.8132</v>
+      </c>
+      <c r="D26">
+        <v>65.816299999999998</v>
+      </c>
+      <c r="E26">
+        <v>1092</v>
+      </c>
+      <c r="F26">
+        <v>129</v>
+      </c>
+      <c r="G26">
+        <v>67</v>
+      </c>
+      <c r="H26">
+        <v>963</v>
+      </c>
+      <c r="I26">
+        <v>1030</v>
+      </c>
+      <c r="J26">
+        <v>94.322299999999998</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>95.972399999999993</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>2607</v>
+      </c>
+      <c r="F27">
+        <v>2502</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>105</v>
+      </c>
+      <c r="I27">
+        <v>105</v>
+      </c>
+      <c r="J27">
+        <v>4.0275999999999996</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>0.3367</v>
+      </c>
+      <c r="D28">
+        <v>71.428600000000003</v>
+      </c>
+      <c r="E28">
+        <v>1485</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1480</v>
+      </c>
+      <c r="I28">
+        <v>1482</v>
+      </c>
+      <c r="J28">
+        <v>99.798000000000002</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>10.438000000000001</v>
+      </c>
+      <c r="D29">
+        <v>65.051000000000002</v>
+      </c>
+      <c r="E29">
+        <v>2443</v>
+      </c>
+      <c r="F29">
+        <v>255</v>
+      </c>
+      <c r="G29">
+        <v>137</v>
+      </c>
+      <c r="H29">
+        <v>2188</v>
+      </c>
+      <c r="I29">
+        <v>2325</v>
+      </c>
+      <c r="J29">
+        <v>95.169899999999998</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>50.182200000000002</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>2744</v>
+      </c>
+      <c r="F30">
+        <v>1377</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1367</v>
+      </c>
+      <c r="I30">
+        <v>1367</v>
+      </c>
+      <c r="J30">
+        <v>49.817799999999998</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>87.263499999999993</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>2748</v>
+      </c>
+      <c r="F31">
+        <v>2398</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>350</v>
+      </c>
+      <c r="I31">
+        <v>350</v>
+      </c>
+      <c r="J31">
+        <v>12.736499999999999</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>0.41466999999999998</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>3135</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3122</v>
+      </c>
+      <c r="I32">
+        <v>3122</v>
+      </c>
+      <c r="J32">
+        <v>99.585300000000004</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>18.542400000000001</v>
+      </c>
+      <c r="D33">
+        <v>98.288499999999999</v>
+      </c>
+      <c r="E33">
+        <v>2168</v>
+      </c>
+      <c r="F33">
+        <v>402</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>1766</v>
+      </c>
+      <c r="I33">
+        <v>1773</v>
+      </c>
+      <c r="J33">
+        <v>81.7804</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.47661999999999999</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>3357</v>
+      </c>
+      <c r="F34">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>3341</v>
+      </c>
+      <c r="I34">
+        <v>3341</v>
+      </c>
+      <c r="J34">
+        <v>99.523399999999995</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="D35">
+        <v>3.5148999999999999</v>
+      </c>
+      <c r="E35">
+        <v>329</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>549</v>
+      </c>
+      <c r="H35">
+        <v>309</v>
+      </c>
+      <c r="I35">
+        <v>858</v>
+      </c>
+      <c r="J35">
+        <v>260.7903</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>33.3003</v>
+      </c>
+      <c r="D36">
+        <v>99.851600000000005</v>
+      </c>
+      <c r="E36">
+        <v>2021</v>
+      </c>
+      <c r="F36">
+        <v>673</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1348</v>
+      </c>
+      <c r="I36">
+        <v>1349</v>
+      </c>
+      <c r="J36">
+        <v>66.749099999999999</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>68.924599999999998</v>
+      </c>
+      <c r="D37">
+        <v>91.666700000000006</v>
+      </c>
+      <c r="E37">
+        <v>1181</v>
+      </c>
+      <c r="F37">
+        <v>814</v>
+      </c>
+      <c r="G37">
+        <v>74</v>
+      </c>
+      <c r="H37">
+        <v>367</v>
+      </c>
+      <c r="I37">
+        <v>441</v>
+      </c>
+      <c r="J37">
+        <v>37.341200000000001</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>43.236499999999999</v>
+      </c>
+      <c r="D38">
+        <v>96.857500000000002</v>
+      </c>
+      <c r="E38">
+        <v>1996</v>
+      </c>
+      <c r="F38">
+        <v>863</v>
+      </c>
+      <c r="G38">
+        <v>28</v>
+      </c>
+      <c r="H38">
+        <v>1133</v>
+      </c>
+      <c r="I38">
+        <v>1161</v>
+      </c>
+      <c r="J38">
+        <v>58.1663</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>10.428000000000001</v>
+      </c>
+      <c r="D39">
+        <v>98.857100000000003</v>
+      </c>
+      <c r="E39">
+        <v>1659</v>
+      </c>
+      <c r="F39">
+        <v>173</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1486</v>
+      </c>
+      <c r="I39">
+        <v>1488</v>
+      </c>
+      <c r="J39">
+        <v>89.692599999999999</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>61.148400000000002</v>
+      </c>
+      <c r="D40">
+        <v>93.714299999999994</v>
+      </c>
+      <c r="E40">
+        <v>1341</v>
+      </c>
+      <c r="F40">
+        <v>820</v>
+      </c>
+      <c r="G40">
+        <v>55</v>
+      </c>
+      <c r="H40">
+        <v>521</v>
+      </c>
+      <c r="I40">
+        <v>576</v>
+      </c>
+      <c r="J40">
+        <v>42.953000000000003</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>90.790599999999998</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>1151</v>
+      </c>
+      <c r="F41">
+        <v>1045</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>106</v>
+      </c>
+      <c r="I41">
+        <v>106</v>
+      </c>
+      <c r="J41">
+        <v>9.2094000000000005</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>5.8864999999999998</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>2871</v>
+      </c>
+      <c r="F42">
+        <v>169</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>2702</v>
+      </c>
+      <c r="I42">
+        <v>2702</v>
+      </c>
+      <c r="J42">
+        <v>94.113500000000002</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>95.708500000000001</v>
+      </c>
+      <c r="D43">
+        <v>99.884200000000007</v>
+      </c>
+      <c r="E43">
+        <v>2703</v>
+      </c>
+      <c r="F43">
+        <v>2587</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>116</v>
+      </c>
+      <c r="I43">
+        <v>119</v>
+      </c>
+      <c r="J43">
+        <v>4.4024999999999999</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f>SUM(K2:K43)</f>
+        <v>95765</v>
       </c>
     </row>
   </sheetData>
